--- a/indicators.xlsx
+++ b/indicators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daymler\daymler\UNIDO\09_Project\my_new_page\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daymler\daymler\UNIDO\09_Project\my_new_adj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E7CBCB-0D3B-465E-888E-BC2ABC554487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A485F35-A012-4550-8661-B5DA76166577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="222">
   <si>
     <t>Category</t>
   </si>
@@ -700,6 +700,18 @@
       </rPr>
       <t xml:space="preserve"> emissions/MVA</t>
     </r>
+  </si>
+  <si>
+    <t>Expected investment</t>
+  </si>
+  <si>
+    <t>Expected Investment reflects the anticipated financial commitment investors are willing to allocate toward industry projects.</t>
+  </si>
+  <si>
+    <t>Market research reports, investor surveys and commitments, historical data on investment trends in similar sectors</t>
+  </si>
+  <si>
+    <t>Forecasted financial return of project i  x  The probability of project being funded, based on market analysis, investor surveys, and financial feasibility</t>
   </si>
 </sst>
 </file>
@@ -1191,9 +1203,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1550,19 +1563,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1579,7 +1592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -1596,7 +1609,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>152</v>
       </c>
@@ -1613,7 +1626,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -1630,7 +1643,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -1647,7 +1660,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>152</v>
       </c>
@@ -1664,7 +1677,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -1681,7 +1694,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1698,7 +1711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1715,7 +1728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1732,7 +1745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1749,7 +1762,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1766,7 +1779,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1783,7 +1796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1800,7 +1813,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1817,7 +1830,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1834,7 +1847,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1848,7 +1861,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1865,7 +1878,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1882,7 +1895,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1899,7 +1912,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1916,7 +1929,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1933,7 +1946,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1950,7 +1963,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1967,7 +1980,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1984,7 +1997,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -2001,7 +2014,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -2018,7 +2031,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -2035,7 +2048,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -2052,7 +2065,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -2069,7 +2082,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -2086,7 +2099,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -2103,7 +2116,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -2120,7 +2133,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -2137,7 +2150,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -2154,7 +2167,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>137</v>
       </c>
@@ -2171,7 +2184,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>137</v>
       </c>
@@ -2188,7 +2201,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>137</v>
       </c>
@@ -2205,7 +2218,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>137</v>
       </c>
@@ -2222,7 +2235,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>137</v>
       </c>
@@ -2239,7 +2252,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>137</v>
       </c>
@@ -2256,7 +2269,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>137</v>
       </c>
@@ -2273,7 +2286,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -2290,7 +2303,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -2307,7 +2320,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -2324,7 +2337,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -2341,7 +2354,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -2358,7 +2371,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -2375,7 +2388,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>111</v>
       </c>
@@ -2392,7 +2405,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>111</v>
       </c>
@@ -2409,7 +2422,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>111</v>
       </c>
@@ -2426,7 +2439,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>111</v>
       </c>
@@ -2443,7 +2456,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>111</v>
       </c>
@@ -2460,7 +2473,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>142</v>
       </c>
@@ -2477,7 +2490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>142</v>
       </c>
@@ -2494,7 +2507,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>142</v>
       </c>
@@ -2511,7 +2524,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>142</v>
       </c>
@@ -2528,7 +2541,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>142</v>
       </c>
@@ -2545,7 +2558,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>142</v>
       </c>
@@ -2562,7 +2575,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>25</v>
       </c>
@@ -2579,7 +2592,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>141</v>
       </c>
@@ -2596,7 +2609,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>141</v>
       </c>
@@ -2613,7 +2626,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>141</v>
       </c>
@@ -2630,7 +2643,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>141</v>
       </c>
@@ -2647,7 +2660,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>141</v>
       </c>
@@ -2662,6 +2675,23 @@
       </c>
       <c r="E65" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" t="s">
+        <v>218</v>
+      </c>
+      <c r="C66" t="s">
+        <v>219</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E66" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/indicators.xlsx
+++ b/indicators.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daymler\daymler\UNIDO\09_Project\my_new_adj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daymler\daymler\UNIDO\09_Project\my_new_adj_up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A485F35-A012-4550-8661-B5DA76166577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F98FC19-E36E-44CC-BC89-BA973604FEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,27 @@
     <sheet name="indicators" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indicators!$A$1:$E$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indicators!$A$1:$F$117</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="423">
   <si>
     <t>Category</t>
   </si>
@@ -412,16 +425,10 @@
     <t>Reusability efficiency</t>
   </si>
   <si>
-    <t>This indicator tracks how efficiently engines and rockets can be reused, reducing overall manufacturing costs.</t>
-  </si>
-  <si>
     <t>Material-to-Output Index (MEO Index)</t>
   </si>
   <si>
     <t>Regulatory Obsolence Cost Index</t>
-  </si>
-  <si>
-    <t>Measures the direct costs of complying with outdated regulations, including labor, documentation, and legal expenses.</t>
   </si>
   <si>
     <t>Total cost of regulatory compliance/Total production cost</t>
@@ -712,6 +719,615 @@
   </si>
   <si>
     <t>Forecasted financial return of project i  x  The probability of project being funded, based on market analysis, investor surveys, and financial feasibility</t>
+  </si>
+  <si>
+    <t>Measures the volume of minerals extracted, providing insight into production scale.</t>
+  </si>
+  <si>
+    <t>Sum of all mineral output (tons)</t>
+  </si>
+  <si>
+    <t>National Mining Statistics Reports</t>
+  </si>
+  <si>
+    <t>Indicates the economic contribution of mining to the GDP.</t>
+  </si>
+  <si>
+    <t>Value of output - Value of intermediate consumption</t>
+  </si>
+  <si>
+    <t>Central Bank Data, National Accounts</t>
+  </si>
+  <si>
+    <t>Mining Production Index (MPI)</t>
+  </si>
+  <si>
+    <t>Tracks changes in mining production over time.</t>
+  </si>
+  <si>
+    <t>Current production / Base year production * 100</t>
+  </si>
+  <si>
+    <t>National Statistics Office</t>
+  </si>
+  <si>
+    <t>Shows year-on-year changes in mining production to assess sector growth.</t>
+  </si>
+  <si>
+    <t>(Production in Current Year - Production in Previous Year) / Production in Previous Year * 100</t>
+  </si>
+  <si>
+    <t>Ministry of Mining Annual Reports</t>
+  </si>
+  <si>
+    <t>Represents the significance of mining in the overall economy.</t>
+  </si>
+  <si>
+    <t>(Gross Mining Value Added / Total GDP) * 100</t>
+  </si>
+  <si>
+    <t>National Accounts, Central Bank</t>
+  </si>
+  <si>
+    <t>Measures efficiency in water usage, highlighting environmental impact.</t>
+  </si>
+  <si>
+    <t>Total Water Consumed / Total Mineral Production</t>
+  </si>
+  <si>
+    <t>Environmental Reports from Mining Companies</t>
+  </si>
+  <si>
+    <t>Assesses the carbon footprint of mining operations.</t>
+  </si>
+  <si>
+    <t>Total CO2 Emissions / Total Ore Processed</t>
+  </si>
+  <si>
+    <t>Environmental Protection Agency Reports</t>
+  </si>
+  <si>
+    <t>Indicates the amount of waste material generated, impacting environmental management.</t>
+  </si>
+  <si>
+    <t>Sum of Waste Rock + Tailings</t>
+  </si>
+  <si>
+    <t>Mining Company Sustainability Reports</t>
+  </si>
+  <si>
+    <t>Evaluates energy efficiency in mining operations.</t>
+  </si>
+  <si>
+    <t>Total Energy Consumed / Total Mineral Production</t>
+  </si>
+  <si>
+    <t>Energy Usage Reports from Mining Companies</t>
+  </si>
+  <si>
+    <t>Tracks the percentage of mined land that has been restored.</t>
+  </si>
+  <si>
+    <t>(Area of Land Reclaimed / Total Area Mined) * 100</t>
+  </si>
+  <si>
+    <t>Ministry of Environment Reports</t>
+  </si>
+  <si>
+    <t>Measures the proportion of intermediate inputs in total production costs.</t>
+  </si>
+  <si>
+    <t>(Total Intermediate Inputs / Total Output) * 100</t>
+  </si>
+  <si>
+    <t>Financial Statements of Mining Companies</t>
+  </si>
+  <si>
+    <t>Tracks expenditure on chemicals, indicating operational efficiency.</t>
+  </si>
+  <si>
+    <t>Sum of all chemical costs used in mining operations</t>
+  </si>
+  <si>
+    <t>Mining Company Procurement Reports</t>
+  </si>
+  <si>
+    <t>Evaluates energy cost efficiency in processing ore.</t>
+  </si>
+  <si>
+    <t>Total Energy Cost / Total Ore Processed</t>
+  </si>
+  <si>
+    <t>Energy Bills and Mining Company Cost Reports</t>
+  </si>
+  <si>
+    <t>Measures the amount of explosives used, impacting costs and environmental safety.</t>
+  </si>
+  <si>
+    <t>Total Explosives Used / Total Ore Processed</t>
+  </si>
+  <si>
+    <t>Mining Safety and Procurement Reports</t>
+  </si>
+  <si>
+    <t>Indicates the proportion of maintenance costs, reflecting equipment reliability.</t>
+  </si>
+  <si>
+    <t>(Total Maintenance Costs / Total Operational Costs) * 100</t>
+  </si>
+  <si>
+    <t>Company Financial Reports</t>
+  </si>
+  <si>
+    <t>Number of Employees in Mining Sector</t>
+  </si>
+  <si>
+    <t>Tracks employment levels, providing insights into labor needs and workforce stability.</t>
+  </si>
+  <si>
+    <t>Total number of employees engaged in mining activities</t>
+  </si>
+  <si>
+    <t>Mining Sector Employment Reports</t>
+  </si>
+  <si>
+    <t>Average Hours Worked per Employee per Week</t>
+  </si>
+  <si>
+    <t>Measures the average workload of employees, indicating productivity and labor conditions.</t>
+  </si>
+  <si>
+    <t>Total Hours Worked / Total Number of Employees</t>
+  </si>
+  <si>
+    <t>Labor Statistics Reports</t>
+  </si>
+  <si>
+    <t>Indicates the share of skilled workers, impacting operational efficiency and innovation.</t>
+  </si>
+  <si>
+    <t>(Number of Skilled Employees / Total Employees) * 100</t>
+  </si>
+  <si>
+    <t>HR Reports from Mining Companies</t>
+  </si>
+  <si>
+    <t>Accident Rate (Number of Accidents per 1,000 Workers)</t>
+  </si>
+  <si>
+    <t>Tracks safety performance, reflecting the effectiveness of safety protocols.</t>
+  </si>
+  <si>
+    <t>(Total Number of Accidents / Total Employees) * 1000</t>
+  </si>
+  <si>
+    <t>Workplace Safety Reports</t>
+  </si>
+  <si>
+    <t>Measures gender diversity in the mining workforce.</t>
+  </si>
+  <si>
+    <t>(Number of Female Employees / Total Employees) * 100</t>
+  </si>
+  <si>
+    <t>Gender Equality Reports</t>
+  </si>
+  <si>
+    <t>Tracks income levels in the mining sector, reflecting living standards and labor costs.</t>
+  </si>
+  <si>
+    <t>Total Wages Paid / Total Employees</t>
+  </si>
+  <si>
+    <t>Payroll Reports from Mining Companies</t>
+  </si>
+  <si>
+    <t>Indicates changes in income levels over time, reflecting economic conditions.</t>
+  </si>
+  <si>
+    <t>(Current Year Average Wage - Previous Year Average Wage) / Previous Year Average Wage * 100</t>
+  </si>
+  <si>
+    <t>Ratio of Mining Wages to National Average Wage</t>
+  </si>
+  <si>
+    <t>Compares mining wages to the national average, assessing the attractiveness of the sector.</t>
+  </si>
+  <si>
+    <t>Average Mining Wage / National Average Wage</t>
+  </si>
+  <si>
+    <t>Measures the extent of performance-based incentives in the mining sector.</t>
+  </si>
+  <si>
+    <t>(Total Bonuses and Incentives / Total Wages) * 100</t>
+  </si>
+  <si>
+    <t>Company Payroll Reports</t>
+  </si>
+  <si>
+    <t>Assesses pay equality between male and female employees in the mining sector.</t>
+  </si>
+  <si>
+    <t>(Average Male Wage - Average Female Wage) / Average Male Wage * 100</t>
+  </si>
+  <si>
+    <t>Measures the total amount of capital invested in mining operations.</t>
+  </si>
+  <si>
+    <t>Sum of all investment expenditures in mining projects</t>
+  </si>
+  <si>
+    <t>Mining Investment Reports</t>
+  </si>
+  <si>
+    <t>Tracks the proportion of investment directed towards exploration.</t>
+  </si>
+  <si>
+    <t>(Exploration Expenditure / Total Investment) * 100</t>
+  </si>
+  <si>
+    <t>Exploration Reports from Mining Companies</t>
+  </si>
+  <si>
+    <t>Measures the amount invested in R&amp;D to improve mining techniques and technology.</t>
+  </si>
+  <si>
+    <t>Sum of R&amp;D expenditures</t>
+  </si>
+  <si>
+    <t>R&amp;D Expenditure Reports</t>
+  </si>
+  <si>
+    <t>Evaluates the efficiency of capital investment in relation to production volume.</t>
+  </si>
+  <si>
+    <t>Total Capital Expenditure / Total Production</t>
+  </si>
+  <si>
+    <t>Financial Reports</t>
+  </si>
+  <si>
+    <t>Measures the level of investment dedicated to minimizing environmental impact.</t>
+  </si>
+  <si>
+    <t>Sum of expenditures on environmental technologies</t>
+  </si>
+  <si>
+    <t>Environmental Investment Reports</t>
+  </si>
+  <si>
+    <t>Tracks the revenue generated from exporting minerals.</t>
+  </si>
+  <si>
+    <t>Sum of export revenues</t>
+  </si>
+  <si>
+    <t>Export Trade Reports</t>
+  </si>
+  <si>
+    <t>Represents the importance of mining exports in the overall export basket.</t>
+  </si>
+  <si>
+    <t>(Value of Mineral Exports / Total Exports) * 100</t>
+  </si>
+  <si>
+    <t>Trade Statistics Office</t>
+  </si>
+  <si>
+    <t>Indicates changes in export performance over time.</t>
+  </si>
+  <si>
+    <t>(Current Year Exports - Previous Year Exports) / Previous Year Exports * 100</t>
+  </si>
+  <si>
+    <t>Ministry of Trade Reports</t>
+  </si>
+  <si>
+    <t>Export Price Index for Minerals</t>
+  </si>
+  <si>
+    <t>Tracks changes in the prices of exported minerals.</t>
+  </si>
+  <si>
+    <t>Current Price / Base Year Price * 100</t>
+  </si>
+  <si>
+    <t>Price Index Reports</t>
+  </si>
+  <si>
+    <t>Number of Export Destinations for Minerals</t>
+  </si>
+  <si>
+    <t>Measures the diversity of international markets for mining exports.</t>
+  </si>
+  <si>
+    <t>Count of distinct export destinations</t>
+  </si>
+  <si>
+    <t>Trade and Export Reports</t>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Tracks the expenditure on mining-related imports, reflecting the dependence on international suppliers.</t>
+  </si>
+  <si>
+    <t>Sum of all expenditures on mining-related imports</t>
+  </si>
+  <si>
+    <t>Trade and Customs Import Reports</t>
+  </si>
+  <si>
+    <t>Indicates the proportion of mining equipment in overall imports, reflecting the importance of mining investments.</t>
+  </si>
+  <si>
+    <t>(Value of Mining Equipment Imports / Total Imports) * 100</t>
+  </si>
+  <si>
+    <t>National Trade Statistics</t>
+  </si>
+  <si>
+    <t>Measures the year-on-year change in the value of mining-related imports to assess market trends.</t>
+  </si>
+  <si>
+    <t>(Value of Current Year Imports - Value of Previous Year Imports) / Value of Previous Year Imports * 100</t>
+  </si>
+  <si>
+    <t>Customs and Trade Reports</t>
+  </si>
+  <si>
+    <t>Evaluates the total expenditure on imported energy for mining activities.</t>
+  </si>
+  <si>
+    <t>Sum of all energy-related import costs used in mining operations</t>
+  </si>
+  <si>
+    <t>Energy and Import Financial Reports</t>
+  </si>
+  <si>
+    <t>Indicates the extent to which the mining sector relies on imported inputs.</t>
+  </si>
+  <si>
+    <t>(Value of Imported Key Inputs / Total Value of Key Inputs) * 100</t>
+  </si>
+  <si>
+    <t>Procurement and Trade Analysis Reports</t>
+  </si>
+  <si>
+    <t>Represents the extent of automation in mining, impacting productivity and efficiency.</t>
+  </si>
+  <si>
+    <t>(Number of Automated Processes / Total Number of Processes) * 100</t>
+  </si>
+  <si>
+    <t>Company Automation Implementation Reports</t>
+  </si>
+  <si>
+    <t>Tracks the capital spent on AI technologies, indicating the level of technological advancement.</t>
+  </si>
+  <si>
+    <t>Sum of all expenditures on AI-related technologies in mining</t>
+  </si>
+  <si>
+    <t>Technology and Investment Financial Records</t>
+  </si>
+  <si>
+    <t>Number of Autonomous Vehicles in Operation</t>
+  </si>
+  <si>
+    <t>Measures the adoption of autonomous vehicle technology, reflecting modernization in mining operations.</t>
+  </si>
+  <si>
+    <t>Count of autonomous vehicles in operation</t>
+  </si>
+  <si>
+    <t>Fleet Management and Technology Reports</t>
+  </si>
+  <si>
+    <t>Indicates the use of AI for predictive maintenance, reducing unexpected equipment failures.</t>
+  </si>
+  <si>
+    <t>(Number of Assets with AI Predictive Maintenance / Total Assets) * 100</t>
+  </si>
+  <si>
+    <t>Maintenance and AI Integration Reports</t>
+  </si>
+  <si>
+    <t>Assesses the impact of automation in reducing equipment and operation downtime.</t>
+  </si>
+  <si>
+    <t>(Downtime Before Automation - Downtime After Automation) / Downtime Before Automation * 100</t>
+  </si>
+  <si>
+    <t>Operational Efficiency Reports</t>
+  </si>
+  <si>
+    <t>Number of Patents Filed Related to Mining</t>
+  </si>
+  <si>
+    <t>Measures innovation in mining by tracking the number of patents filed.</t>
+  </si>
+  <si>
+    <t>Count of patents filed related to mining technologies and methods</t>
+  </si>
+  <si>
+    <t>Patent Office Records</t>
+  </si>
+  <si>
+    <t>Represents the investment in research and development relative to revenue, indicating innovation capacity.</t>
+  </si>
+  <si>
+    <t>(Total R&amp;D Expenditure / Total Revenue) * 100</t>
+  </si>
+  <si>
+    <t>Financial and R&amp;D Expenditure Reports</t>
+  </si>
+  <si>
+    <t>Collaboration with Universities and Research Centers (Number of Projects)</t>
+  </si>
+  <si>
+    <t>Tracks the number of collaborative projects with academic and research institutions, fostering innovation.</t>
+  </si>
+  <si>
+    <t>Count of collaborative projects with universities and research centers</t>
+  </si>
+  <si>
+    <t>R&amp;D Collaboration Reports</t>
+  </si>
+  <si>
+    <t>Number of Innovations Adopted in Mining Processes</t>
+  </si>
+  <si>
+    <t>Measures the level of innovation adoption in mining processes.</t>
+  </si>
+  <si>
+    <t>Count of innovations adopted</t>
+  </si>
+  <si>
+    <t>Innovation Adoption Reports from Mining Companies</t>
+  </si>
+  <si>
+    <t>Innovation Index for Mining Sector</t>
+  </si>
+  <si>
+    <t>Provides an overall score of the mining sector's innovation capacity and performance.</t>
+  </si>
+  <si>
+    <t>Composite index based on various innovation metrics</t>
+  </si>
+  <si>
+    <t>National Innovation Surveys and Industry Reports</t>
+  </si>
+  <si>
+    <t>Gross Mining Value Added</t>
+  </si>
+  <si>
+    <t>Annual Growth Rate of Mineral Production</t>
+  </si>
+  <si>
+    <t>Share of Mining in GDP</t>
+  </si>
+  <si>
+    <t>Land Reclamation Rate</t>
+  </si>
+  <si>
+    <t>Intermediate Inputs as Percentage of Total Output</t>
+  </si>
+  <si>
+    <t>Cost of Chemicals Used in Mining Operations</t>
+  </si>
+  <si>
+    <t>Energy Cost per Ton of Ore Processed</t>
+  </si>
+  <si>
+    <t>Maintenance Cost as a Share of Total Costs</t>
+  </si>
+  <si>
+    <t>Percentage of Skilled Workforce</t>
+  </si>
+  <si>
+    <t>Female Employment Rate in Mining</t>
+  </si>
+  <si>
+    <t>Average Wage per Employee in Mining</t>
+  </si>
+  <si>
+    <t>Wage Growth Rate in Mining Sector</t>
+  </si>
+  <si>
+    <t>Bonuses and Incentives as Percentage of Total Wages</t>
+  </si>
+  <si>
+    <t>Gender Pay Gap in Mining Sector</t>
+  </si>
+  <si>
+    <t>Exploration Expenditure as Percentage of Total Investment</t>
+  </si>
+  <si>
+    <t>Investment in Research and Development</t>
+  </si>
+  <si>
+    <t>Capital Expenditure per Ton of Production</t>
+  </si>
+  <si>
+    <t>Investment in Environmental Technologies</t>
+  </si>
+  <si>
+    <t>Value of Mineral Exports</t>
+  </si>
+  <si>
+    <t>Share of Mineral Exports in Total Exports</t>
+  </si>
+  <si>
+    <t>Annual Growth Rate of Mineral Exports</t>
+  </si>
+  <si>
+    <t>Value of Mining-related Imports</t>
+  </si>
+  <si>
+    <t>Share of Mining Equipment in Total Imports</t>
+  </si>
+  <si>
+    <t>Annual Growth Rate of Mining-related Imports</t>
+  </si>
+  <si>
+    <t>Cost of Imported Energy for Mining</t>
+  </si>
+  <si>
+    <t>Import Dependency Ratio for Key Inputs</t>
+  </si>
+  <si>
+    <t>Percentage of Automated Processes in Mining</t>
+  </si>
+  <si>
+    <t>Investment in AI Technologies for Mining</t>
+  </si>
+  <si>
+    <t>AI-Driven Predictive Maintenance Implementation Rate</t>
+  </si>
+  <si>
+    <t>Reduction in Downtime Due to Automation</t>
+  </si>
+  <si>
+    <t>R&amp;D Expenditure as Percentage of Revenue</t>
+  </si>
+  <si>
+    <t>Greenhouse Gas Emissions</t>
+  </si>
+  <si>
+    <t>Total Mineral Production</t>
+  </si>
+  <si>
+    <t>Water Consumption per Unit of Production</t>
+  </si>
+  <si>
+    <t>Waste Rock and Tailings Generated</t>
+  </si>
+  <si>
+    <t>Energy Consumption per Unit of Production</t>
+  </si>
+  <si>
+    <t>Explosives Consumption per Ton of Ore</t>
+  </si>
+  <si>
+    <t>Total Investment in Mining Projects</t>
+  </si>
+  <si>
+    <t>Expected Investment reflects the anticipated financial commitment investors are willing to allocate toward mining projects.</t>
+  </si>
+  <si>
+    <t>This indicator tracks how efficiently engines can be reused, reducing overall manufacturing costs.</t>
+  </si>
+  <si>
+    <t>Measures the direct costs of complying with certain regulations, including labor, documentation, and legal expenses.</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1819,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1563,1142 +2178,2361 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
-    <col min="2" max="2" width="54.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="54.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
         <v>152</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
         <v>153</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" t="s">
         <v>201</v>
       </c>
-      <c r="D2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>331</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
         <v>202</v>
       </c>
-      <c r="D5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>331</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
         <v>165</v>
       </c>
-      <c r="E7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>331</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>331</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>331</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>331</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
         <v>168</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>331</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
         <v>204</v>
       </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>331</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>331</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>331</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>331</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
         <v>172</v>
       </c>
-      <c r="D21" t="s">
-        <v>173</v>
-      </c>
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="D24" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>331</v>
+      </c>
+      <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" t="s">
-        <v>176</v>
-      </c>
-      <c r="D22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>331</v>
+      </c>
+      <c r="B26" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="s">
-        <v>175</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>331</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>331</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
         <v>177</v>
       </c>
-      <c r="D23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>174</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>331</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
         <v>178</v>
       </c>
-      <c r="D24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="E29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>331</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
         <v>179</v>
       </c>
-      <c r="C28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>331</v>
+      </c>
+      <c r="B31" t="s">
         <v>63</v>
       </c>
-      <c r="B29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>331</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" t="s">
         <v>180</v>
       </c>
-      <c r="D29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="E32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>331</v>
+      </c>
+      <c r="B33" t="s">
         <v>63</v>
       </c>
-      <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>331</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>331</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>331</v>
+      </c>
+      <c r="B36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" t="s">
         <v>181</v>
       </c>
-      <c r="D30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" t="s">
-        <v>182</v>
-      </c>
-      <c r="D32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
         <v>183</v>
       </c>
-      <c r="C36" t="s">
-        <v>185</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>81</v>
       </c>
-      <c r="E36" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>331</v>
       </c>
       <c r="B37" t="s">
         <v>135</v>
       </c>
       <c r="C37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" t="s">
         <v>82</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>83</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>331</v>
+      </c>
+      <c r="B38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>331</v>
+      </c>
+      <c r="B39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" t="s">
+        <v>205</v>
+      </c>
+      <c r="F39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>331</v>
+      </c>
+      <c r="B40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>331</v>
+      </c>
+      <c r="B41" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" t="s">
+        <v>182</v>
+      </c>
+      <c r="E41" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>331</v>
+      </c>
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>331</v>
+      </c>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>331</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" t="s">
+        <v>185</v>
+      </c>
+      <c r="E44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>331</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" t="s">
+        <v>206</v>
+      </c>
+      <c r="F45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>331</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>331</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" t="s">
+        <v>207</v>
+      </c>
+      <c r="F47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>331</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" t="s">
+        <v>110</v>
+      </c>
+      <c r="F48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>331</v>
+      </c>
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>331</v>
+      </c>
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" t="s">
+        <v>208</v>
+      </c>
+      <c r="F50" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>331</v>
+      </c>
+      <c r="B51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" t="s">
+        <v>119</v>
+      </c>
+      <c r="F51" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>331</v>
+      </c>
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" t="s">
+        <v>122</v>
+      </c>
+      <c r="F52" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>331</v>
+      </c>
+      <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53" t="s">
+        <v>209</v>
+      </c>
+      <c r="F53" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>331</v>
+      </c>
+      <c r="B54" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>137</v>
-      </c>
-      <c r="B38" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="C54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" t="s">
+        <v>186</v>
+      </c>
+      <c r="E54" t="s">
+        <v>210</v>
+      </c>
+      <c r="F54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>331</v>
+      </c>
+      <c r="B55" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" t="s">
-        <v>207</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="C55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" t="s">
+        <v>187</v>
+      </c>
+      <c r="E55" t="s">
+        <v>126</v>
+      </c>
+      <c r="F55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>331</v>
+      </c>
+      <c r="B56" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>137</v>
-      </c>
-      <c r="B40" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="C56" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" t="s">
+        <v>188</v>
+      </c>
+      <c r="E56" t="s">
+        <v>211</v>
+      </c>
+      <c r="F56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>331</v>
+      </c>
+      <c r="B57" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>137</v>
-      </c>
-      <c r="B41" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" t="s">
-        <v>184</v>
-      </c>
-      <c r="D41" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="C57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" t="s">
+        <v>421</v>
+      </c>
+      <c r="E57" t="s">
+        <v>212</v>
+      </c>
+      <c r="F57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>331</v>
+      </c>
+      <c r="B58" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>137</v>
-      </c>
-      <c r="B42" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="C58" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" t="s">
+        <v>189</v>
+      </c>
+      <c r="E58" t="s">
+        <v>132</v>
+      </c>
+      <c r="F58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>331</v>
+      </c>
+      <c r="B59" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D43" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>96</v>
-      </c>
-      <c r="B44" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" t="s">
-        <v>187</v>
-      </c>
-      <c r="D44" t="s">
-        <v>100</v>
-      </c>
-      <c r="E44" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>96</v>
-      </c>
-      <c r="B45" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" t="s">
-        <v>208</v>
-      </c>
-      <c r="E45" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="C59" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" t="s">
+        <v>422</v>
+      </c>
+      <c r="E59" t="s">
+        <v>131</v>
+      </c>
+      <c r="F59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>331</v>
+      </c>
+      <c r="B60" t="s">
         <v>25</v>
       </c>
-      <c r="B47" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" t="s">
-        <v>209</v>
-      </c>
-      <c r="E47" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" t="s">
-        <v>109</v>
-      </c>
-      <c r="D48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>111</v>
-      </c>
-      <c r="B49" t="s">
-        <v>112</v>
-      </c>
-      <c r="C49" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" t="s">
-        <v>114</v>
-      </c>
-      <c r="E49" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>111</v>
-      </c>
-      <c r="B50" t="s">
-        <v>115</v>
-      </c>
-      <c r="C50" t="s">
-        <v>116</v>
-      </c>
-      <c r="D50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E50" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>111</v>
-      </c>
-      <c r="B51" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" t="s">
-        <v>118</v>
-      </c>
-      <c r="D51" t="s">
-        <v>119</v>
-      </c>
-      <c r="E51" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B52" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" t="s">
-        <v>121</v>
-      </c>
-      <c r="D52" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>111</v>
-      </c>
-      <c r="B53" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" t="s">
-        <v>123</v>
-      </c>
-      <c r="D53" t="s">
-        <v>211</v>
-      </c>
-      <c r="E53" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="C60" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" t="s">
+        <v>213</v>
+      </c>
+      <c r="E60" t="s">
+        <v>215</v>
+      </c>
+      <c r="F60" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>331</v>
+      </c>
+      <c r="B61" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" t="s">
         <v>142</v>
       </c>
-      <c r="B54" t="s">
-        <v>124</v>
-      </c>
-      <c r="C54" t="s">
-        <v>188</v>
-      </c>
-      <c r="D54" t="s">
-        <v>212</v>
-      </c>
-      <c r="E54" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>142</v>
-      </c>
-      <c r="B55" t="s">
-        <v>125</v>
-      </c>
-      <c r="C55" t="s">
-        <v>189</v>
-      </c>
-      <c r="D55" t="s">
-        <v>126</v>
-      </c>
-      <c r="E55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>142</v>
-      </c>
-      <c r="B56" t="s">
-        <v>127</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="D61" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61" t="s">
+        <v>144</v>
+      </c>
+      <c r="F61" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>331</v>
+      </c>
+      <c r="B62" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" t="s">
         <v>190</v>
       </c>
-      <c r="D56" t="s">
-        <v>213</v>
-      </c>
-      <c r="E56" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>142</v>
-      </c>
-      <c r="B57" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57" t="s">
-        <v>129</v>
-      </c>
-      <c r="D57" t="s">
-        <v>214</v>
-      </c>
-      <c r="E57" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>142</v>
-      </c>
-      <c r="B58" t="s">
-        <v>130</v>
-      </c>
-      <c r="C58" t="s">
-        <v>191</v>
-      </c>
-      <c r="D58" t="s">
-        <v>134</v>
-      </c>
-      <c r="E58" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>142</v>
-      </c>
-      <c r="B59" t="s">
-        <v>131</v>
-      </c>
-      <c r="C59" t="s">
-        <v>132</v>
-      </c>
-      <c r="D59" t="s">
-        <v>133</v>
-      </c>
-      <c r="E59" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>25</v>
-      </c>
-      <c r="B60" t="s">
-        <v>216</v>
-      </c>
-      <c r="C60" t="s">
-        <v>215</v>
-      </c>
-      <c r="D60" t="s">
-        <v>217</v>
-      </c>
-      <c r="E60" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>141</v>
-      </c>
-      <c r="B61" t="s">
-        <v>144</v>
-      </c>
-      <c r="C61" t="s">
-        <v>145</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>146</v>
-      </c>
-      <c r="E61" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>141</v>
-      </c>
-      <c r="B62" t="s">
-        <v>192</v>
-      </c>
-      <c r="C62" t="s">
-        <v>148</v>
-      </c>
-      <c r="D62" t="s">
-        <v>149</v>
       </c>
       <c r="E62" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F62" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>141</v>
+        <v>331</v>
       </c>
       <c r="B63" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" t="s">
+        <v>191</v>
+      </c>
+      <c r="D63" t="s">
+        <v>148</v>
+      </c>
+      <c r="E63" t="s">
+        <v>149</v>
+      </c>
+      <c r="F63" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>331</v>
+      </c>
+      <c r="B64" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" t="s">
+        <v>192</v>
+      </c>
+      <c r="D64" t="s">
         <v>193</v>
       </c>
-      <c r="C63" t="s">
-        <v>150</v>
-      </c>
-      <c r="D63" t="s">
-        <v>151</v>
-      </c>
-      <c r="E63" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>141</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="E64" t="s">
         <v>194</v>
       </c>
-      <c r="C64" t="s">
+      <c r="F64" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>331</v>
+      </c>
+      <c r="B65" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" t="s">
         <v>195</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>196</v>
       </c>
-      <c r="E64" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>141</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="E65" t="s">
         <v>197</v>
       </c>
-      <c r="C65" t="s">
-        <v>198</v>
-      </c>
-      <c r="D65" t="s">
-        <v>199</v>
-      </c>
-      <c r="E65" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>137</v>
+        <v>331</v>
       </c>
       <c r="B66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" t="s">
+        <v>216</v>
+      </c>
+      <c r="D66" t="s">
+        <v>217</v>
+      </c>
+      <c r="E66" t="s">
+        <v>219</v>
+      </c>
+      <c r="F66" t="s">
         <v>218</v>
       </c>
-      <c r="C66" t="s">
+    </row>
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>329</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>414</v>
+      </c>
+      <c r="D67" t="s">
+        <v>220</v>
+      </c>
+      <c r="E67" t="s">
+        <v>221</v>
+      </c>
+      <c r="F67" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>329</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>382</v>
+      </c>
+      <c r="D68" t="s">
+        <v>223</v>
+      </c>
+      <c r="E68" t="s">
+        <v>224</v>
+      </c>
+      <c r="F68" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>329</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>226</v>
+      </c>
+      <c r="D69" t="s">
+        <v>227</v>
+      </c>
+      <c r="E69" t="s">
+        <v>228</v>
+      </c>
+      <c r="F69" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>329</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>383</v>
+      </c>
+      <c r="D70" t="s">
+        <v>230</v>
+      </c>
+      <c r="E70" t="s">
+        <v>231</v>
+      </c>
+      <c r="F70" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>329</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>384</v>
+      </c>
+      <c r="D71" t="s">
+        <v>233</v>
+      </c>
+      <c r="E71" t="s">
+        <v>234</v>
+      </c>
+      <c r="F71" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>329</v>
+      </c>
+      <c r="B72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" t="s">
+        <v>415</v>
+      </c>
+      <c r="D72" t="s">
+        <v>236</v>
+      </c>
+      <c r="E72" t="s">
+        <v>237</v>
+      </c>
+      <c r="F72" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>329</v>
+      </c>
+      <c r="B73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" t="s">
+        <v>413</v>
+      </c>
+      <c r="D73" t="s">
+        <v>239</v>
+      </c>
+      <c r="E73" t="s">
+        <v>240</v>
+      </c>
+      <c r="F73" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>329</v>
+      </c>
+      <c r="B74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" t="s">
+        <v>416</v>
+      </c>
+      <c r="D74" t="s">
+        <v>242</v>
+      </c>
+      <c r="E74" t="s">
+        <v>243</v>
+      </c>
+      <c r="F74" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>329</v>
+      </c>
+      <c r="B75" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" t="s">
+        <v>417</v>
+      </c>
+      <c r="D75" t="s">
+        <v>245</v>
+      </c>
+      <c r="E75" t="s">
+        <v>246</v>
+      </c>
+      <c r="F75" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>329</v>
+      </c>
+      <c r="B76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" t="s">
+        <v>385</v>
+      </c>
+      <c r="D76" t="s">
+        <v>248</v>
+      </c>
+      <c r="E76" t="s">
+        <v>249</v>
+      </c>
+      <c r="F76" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>329</v>
+      </c>
+      <c r="B77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" t="s">
+        <v>386</v>
+      </c>
+      <c r="D77" t="s">
+        <v>251</v>
+      </c>
+      <c r="E77" t="s">
+        <v>252</v>
+      </c>
+      <c r="F77" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>329</v>
+      </c>
+      <c r="B78" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" t="s">
+        <v>387</v>
+      </c>
+      <c r="D78" t="s">
+        <v>254</v>
+      </c>
+      <c r="E78" t="s">
+        <v>255</v>
+      </c>
+      <c r="F78" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>329</v>
+      </c>
+      <c r="B79" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79" t="s">
+        <v>388</v>
+      </c>
+      <c r="D79" t="s">
+        <v>257</v>
+      </c>
+      <c r="E79" t="s">
+        <v>258</v>
+      </c>
+      <c r="F79" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>329</v>
+      </c>
+      <c r="B80" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" t="s">
+        <v>418</v>
+      </c>
+      <c r="D80" t="s">
+        <v>260</v>
+      </c>
+      <c r="E80" t="s">
+        <v>261</v>
+      </c>
+      <c r="F80" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>329</v>
+      </c>
+      <c r="B81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" t="s">
+        <v>389</v>
+      </c>
+      <c r="D81" t="s">
+        <v>263</v>
+      </c>
+      <c r="E81" t="s">
+        <v>264</v>
+      </c>
+      <c r="F81" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>329</v>
+      </c>
+      <c r="B82" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" t="s">
+        <v>266</v>
+      </c>
+      <c r="D82" t="s">
+        <v>267</v>
+      </c>
+      <c r="E82" t="s">
+        <v>268</v>
+      </c>
+      <c r="F82" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>329</v>
+      </c>
+      <c r="B83" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" t="s">
+        <v>270</v>
+      </c>
+      <c r="D83" t="s">
+        <v>271</v>
+      </c>
+      <c r="E83" t="s">
+        <v>272</v>
+      </c>
+      <c r="F83" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>329</v>
+      </c>
+      <c r="B84" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" t="s">
+        <v>390</v>
+      </c>
+      <c r="D84" t="s">
+        <v>274</v>
+      </c>
+      <c r="E84" t="s">
+        <v>275</v>
+      </c>
+      <c r="F84" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>329</v>
+      </c>
+      <c r="B85" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" t="s">
+        <v>277</v>
+      </c>
+      <c r="D85" t="s">
+        <v>278</v>
+      </c>
+      <c r="E85" t="s">
+        <v>279</v>
+      </c>
+      <c r="F85" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>329</v>
+      </c>
+      <c r="B86" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" t="s">
+        <v>391</v>
+      </c>
+      <c r="D86" t="s">
+        <v>281</v>
+      </c>
+      <c r="E86" t="s">
+        <v>282</v>
+      </c>
+      <c r="F86" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>329</v>
+      </c>
+      <c r="B87" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" t="s">
+        <v>392</v>
+      </c>
+      <c r="D87" t="s">
+        <v>284</v>
+      </c>
+      <c r="E87" t="s">
+        <v>285</v>
+      </c>
+      <c r="F87" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>329</v>
+      </c>
+      <c r="B88" t="s">
+        <v>63</v>
+      </c>
+      <c r="C88" t="s">
+        <v>393</v>
+      </c>
+      <c r="D88" t="s">
+        <v>287</v>
+      </c>
+      <c r="E88" t="s">
+        <v>288</v>
+      </c>
+      <c r="F88" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>329</v>
+      </c>
+      <c r="B89" t="s">
+        <v>63</v>
+      </c>
+      <c r="C89" t="s">
+        <v>289</v>
+      </c>
+      <c r="D89" t="s">
+        <v>290</v>
+      </c>
+      <c r="E89" t="s">
+        <v>291</v>
+      </c>
+      <c r="F89" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>329</v>
+      </c>
+      <c r="B90" t="s">
+        <v>63</v>
+      </c>
+      <c r="C90" t="s">
+        <v>394</v>
+      </c>
+      <c r="D90" t="s">
+        <v>292</v>
+      </c>
+      <c r="E90" t="s">
+        <v>293</v>
+      </c>
+      <c r="F90" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>329</v>
+      </c>
+      <c r="B91" t="s">
+        <v>63</v>
+      </c>
+      <c r="C91" t="s">
+        <v>395</v>
+      </c>
+      <c r="D91" t="s">
+        <v>295</v>
+      </c>
+      <c r="E91" t="s">
+        <v>296</v>
+      </c>
+      <c r="F91" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>329</v>
+      </c>
+      <c r="B92" t="s">
+        <v>135</v>
+      </c>
+      <c r="C92" t="s">
+        <v>419</v>
+      </c>
+      <c r="D92" t="s">
+        <v>297</v>
+      </c>
+      <c r="E92" t="s">
+        <v>298</v>
+      </c>
+      <c r="F92" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>329</v>
+      </c>
+      <c r="B93" t="s">
+        <v>135</v>
+      </c>
+      <c r="C93" t="s">
+        <v>396</v>
+      </c>
+      <c r="D93" t="s">
+        <v>300</v>
+      </c>
+      <c r="E93" t="s">
+        <v>301</v>
+      </c>
+      <c r="F93" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>329</v>
+      </c>
+      <c r="B94" t="s">
+        <v>135</v>
+      </c>
+      <c r="C94" t="s">
+        <v>397</v>
+      </c>
+      <c r="D94" t="s">
+        <v>303</v>
+      </c>
+      <c r="E94" t="s">
+        <v>304</v>
+      </c>
+      <c r="F94" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>329</v>
+      </c>
+      <c r="B95" t="s">
+        <v>135</v>
+      </c>
+      <c r="C95" t="s">
+        <v>398</v>
+      </c>
+      <c r="D95" t="s">
+        <v>306</v>
+      </c>
+      <c r="E95" t="s">
+        <v>307</v>
+      </c>
+      <c r="F95" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>329</v>
+      </c>
+      <c r="B96" t="s">
+        <v>135</v>
+      </c>
+      <c r="C96" t="s">
+        <v>399</v>
+      </c>
+      <c r="D96" t="s">
+        <v>309</v>
+      </c>
+      <c r="E96" t="s">
+        <v>310</v>
+      </c>
+      <c r="F96" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>329</v>
+      </c>
+      <c r="B97" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>400</v>
+      </c>
+      <c r="D97" t="s">
+        <v>312</v>
+      </c>
+      <c r="E97" t="s">
+        <v>313</v>
+      </c>
+      <c r="F97" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>329</v>
+      </c>
+      <c r="B98" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98" t="s">
+        <v>401</v>
+      </c>
+      <c r="D98" t="s">
+        <v>315</v>
+      </c>
+      <c r="E98" t="s">
+        <v>316</v>
+      </c>
+      <c r="F98" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>329</v>
+      </c>
+      <c r="B99" t="s">
+        <v>96</v>
+      </c>
+      <c r="C99" t="s">
+        <v>402</v>
+      </c>
+      <c r="D99" t="s">
+        <v>318</v>
+      </c>
+      <c r="E99" t="s">
+        <v>319</v>
+      </c>
+      <c r="F99" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>329</v>
+      </c>
+      <c r="B100" t="s">
+        <v>96</v>
+      </c>
+      <c r="C100" t="s">
+        <v>321</v>
+      </c>
+      <c r="D100" t="s">
+        <v>322</v>
+      </c>
+      <c r="E100" t="s">
+        <v>323</v>
+      </c>
+      <c r="F100" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>329</v>
+      </c>
+      <c r="B101" t="s">
+        <v>96</v>
+      </c>
+      <c r="C101" t="s">
+        <v>325</v>
+      </c>
+      <c r="D101" t="s">
+        <v>326</v>
+      </c>
+      <c r="E101" t="s">
+        <v>327</v>
+      </c>
+      <c r="F101" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>329</v>
+      </c>
+      <c r="B102" t="s">
+        <v>111</v>
+      </c>
+      <c r="C102" t="s">
+        <v>403</v>
+      </c>
+      <c r="D102" t="s">
+        <v>332</v>
+      </c>
+      <c r="E102" t="s">
+        <v>333</v>
+      </c>
+      <c r="F102" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>329</v>
+      </c>
+      <c r="B103" t="s">
+        <v>111</v>
+      </c>
+      <c r="C103" t="s">
+        <v>404</v>
+      </c>
+      <c r="D103" t="s">
+        <v>335</v>
+      </c>
+      <c r="E103" t="s">
+        <v>336</v>
+      </c>
+      <c r="F103" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>329</v>
+      </c>
+      <c r="B104" t="s">
+        <v>111</v>
+      </c>
+      <c r="C104" t="s">
+        <v>405</v>
+      </c>
+      <c r="D104" t="s">
+        <v>338</v>
+      </c>
+      <c r="E104" t="s">
+        <v>339</v>
+      </c>
+      <c r="F104" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>329</v>
+      </c>
+      <c r="B105" t="s">
+        <v>111</v>
+      </c>
+      <c r="C105" t="s">
+        <v>406</v>
+      </c>
+      <c r="D105" t="s">
+        <v>341</v>
+      </c>
+      <c r="E105" t="s">
+        <v>342</v>
+      </c>
+      <c r="F105" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>329</v>
+      </c>
+      <c r="B106" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106" t="s">
+        <v>407</v>
+      </c>
+      <c r="D106" t="s">
+        <v>344</v>
+      </c>
+      <c r="E106" t="s">
+        <v>345</v>
+      </c>
+      <c r="F106" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>329</v>
+      </c>
+      <c r="B107" t="s">
+        <v>140</v>
+      </c>
+      <c r="C107" t="s">
+        <v>408</v>
+      </c>
+      <c r="D107" t="s">
+        <v>347</v>
+      </c>
+      <c r="E107" t="s">
+        <v>348</v>
+      </c>
+      <c r="F107" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>329</v>
+      </c>
+      <c r="B108" t="s">
+        <v>140</v>
+      </c>
+      <c r="C108" t="s">
+        <v>409</v>
+      </c>
+      <c r="D108" t="s">
+        <v>350</v>
+      </c>
+      <c r="E108" t="s">
+        <v>351</v>
+      </c>
+      <c r="F108" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>329</v>
+      </c>
+      <c r="B109" t="s">
+        <v>140</v>
+      </c>
+      <c r="C109" t="s">
+        <v>353</v>
+      </c>
+      <c r="D109" t="s">
+        <v>354</v>
+      </c>
+      <c r="E109" t="s">
+        <v>355</v>
+      </c>
+      <c r="F109" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>329</v>
+      </c>
+      <c r="B110" t="s">
+        <v>140</v>
+      </c>
+      <c r="C110" t="s">
+        <v>410</v>
+      </c>
+      <c r="D110" t="s">
+        <v>357</v>
+      </c>
+      <c r="E110" t="s">
+        <v>358</v>
+      </c>
+      <c r="F110" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>329</v>
+      </c>
+      <c r="B111" t="s">
+        <v>140</v>
+      </c>
+      <c r="C111" t="s">
+        <v>411</v>
+      </c>
+      <c r="D111" t="s">
+        <v>360</v>
+      </c>
+      <c r="E111" t="s">
+        <v>361</v>
+      </c>
+      <c r="F111" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>329</v>
+      </c>
+      <c r="B112" t="s">
+        <v>139</v>
+      </c>
+      <c r="C112" t="s">
+        <v>363</v>
+      </c>
+      <c r="D112" t="s">
+        <v>364</v>
+      </c>
+      <c r="E112" t="s">
+        <v>365</v>
+      </c>
+      <c r="F112" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>329</v>
+      </c>
+      <c r="B113" t="s">
+        <v>139</v>
+      </c>
+      <c r="C113" t="s">
+        <v>412</v>
+      </c>
+      <c r="D113" t="s">
+        <v>367</v>
+      </c>
+      <c r="E113" t="s">
+        <v>368</v>
+      </c>
+      <c r="F113" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>329</v>
+      </c>
+      <c r="B114" t="s">
+        <v>139</v>
+      </c>
+      <c r="C114" t="s">
+        <v>370</v>
+      </c>
+      <c r="D114" t="s">
+        <v>371</v>
+      </c>
+      <c r="E114" t="s">
+        <v>372</v>
+      </c>
+      <c r="F114" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>329</v>
+      </c>
+      <c r="B115" t="s">
+        <v>139</v>
+      </c>
+      <c r="C115" t="s">
+        <v>374</v>
+      </c>
+      <c r="D115" t="s">
+        <v>375</v>
+      </c>
+      <c r="E115" t="s">
+        <v>376</v>
+      </c>
+      <c r="F115" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>329</v>
+      </c>
+      <c r="B116" t="s">
+        <v>139</v>
+      </c>
+      <c r="C116" t="s">
+        <v>378</v>
+      </c>
+      <c r="D116" t="s">
+        <v>379</v>
+      </c>
+      <c r="E116" t="s">
+        <v>380</v>
+      </c>
+      <c r="F116" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>329</v>
+      </c>
+      <c r="B117" t="s">
+        <v>135</v>
+      </c>
+      <c r="C117" t="s">
+        <v>216</v>
+      </c>
+      <c r="D117" t="s">
+        <v>420</v>
+      </c>
+      <c r="E117" t="s">
         <v>219</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E66" t="s">
-        <v>220</v>
+      <c r="F117" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E65" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:F117" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Manufacturing import's share of total merchandise imports"/>
+        <filter val="Automation and Artificial Intelligence"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/indicators.xlsx
+++ b/indicators.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daymler\daymler\UNIDO\09_Project\projectmimunido\projectmimunido\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daymler\daymler\UNIDO\09_Project\projects\mimunido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3125B9E9-6996-46AF-8896-182F414D1395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D17CBF3-7A51-402F-9478-CE6EB2F9695F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="indicators" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indicators!$B$1:$P$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indicators!$A$1:$P$111</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="567">
   <si>
     <t>Category</t>
   </si>
@@ -2617,12 +2617,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.88671875" customWidth="1"/>
     <col min="3" max="3" width="54.33203125" customWidth="1"/>
     <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
@@ -5991,11 +5993,38 @@
       <c r="D76" t="s">
         <v>383</v>
       </c>
+      <c r="E76" t="s">
+        <v>231</v>
+      </c>
+      <c r="F76" t="s">
+        <v>245</v>
+      </c>
+      <c r="G76" t="s">
+        <v>227</v>
+      </c>
       <c r="H76" t="s">
         <v>434</v>
       </c>
       <c r="I76" t="s">
         <v>485</v>
+      </c>
+      <c r="J76" t="s">
+        <v>153</v>
+      </c>
+      <c r="K76" t="s">
+        <v>258</v>
+      </c>
+      <c r="L76" t="s">
+        <v>155</v>
+      </c>
+      <c r="M76" t="s">
+        <v>150</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="O76" t="s">
+        <v>149</v>
       </c>
       <c r="P76" t="s">
         <v>535</v>

--- a/indicators.xlsx
+++ b/indicators.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daymler\daymler\UNIDO\09_Project\projects\mimunido\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daymler\daymler\UNIDO\09_Project\projectmimunido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D17CBF3-7A51-402F-9478-CE6EB2F9695F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA59A2BF-2ABD-4BAF-8A85-7ABFCCA49639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="520">
   <si>
     <t>Category</t>
   </si>
@@ -484,9 +484,6 @@
     <t>Expected Investment reflects the anticipated financial commitment investors are willing to allocate toward industry projects.</t>
   </si>
   <si>
-    <t>Market research reports, investor surveys and commitments, historical data on investment trends in similar sectors</t>
-  </si>
-  <si>
     <t>Forecasted financial return of project i  x  The probability of project being funded, based on market analysis, investor surveys, and financial feasibility</t>
   </si>
   <si>
@@ -1015,751 +1012,613 @@
     <t>Mining</t>
   </si>
   <si>
-    <t>Total Mineral Production</t>
-  </si>
-  <si>
-    <t>Gross Mining Value Added</t>
-  </si>
-  <si>
-    <t>Mining Production Index (MPI)</t>
-  </si>
-  <si>
-    <t>Annual Growth Rate of Mineral Production</t>
-  </si>
-  <si>
-    <t>Share of Mining in GDP</t>
-  </si>
-  <si>
-    <t>Water Consumption per Unit of Production</t>
-  </si>
-  <si>
-    <t>Greenhouse Gas Emissions</t>
-  </si>
-  <si>
-    <t>Waste Rock and Tailings Generated</t>
-  </si>
-  <si>
-    <t>Energy Consumption per Unit of Production</t>
-  </si>
-  <si>
-    <t>Land Reclamation Rate</t>
-  </si>
-  <si>
-    <t>Intermediate Inputs as Percentage of Total Output</t>
-  </si>
-  <si>
-    <t>Cost of Chemicals Used in Mining Operations</t>
-  </si>
-  <si>
-    <t>Energy Cost per Ton of Ore Processed</t>
-  </si>
-  <si>
-    <t>Explosives Consumption per Ton of Ore</t>
-  </si>
-  <si>
-    <t>Maintenance Cost as a Share of Total Costs</t>
-  </si>
-  <si>
-    <t>Number of Employees in Mining Sector</t>
-  </si>
-  <si>
-    <t>Average Hours Worked per Employee per Week</t>
-  </si>
-  <si>
-    <t>Percentage of Skilled Workforce</t>
-  </si>
-  <si>
-    <t>Accident Rate (Number of Accidents per 1,000 Workers)</t>
-  </si>
-  <si>
-    <t>Female Employment Rate in Mining</t>
-  </si>
-  <si>
-    <t>Average Wage per Employee in Mining</t>
-  </si>
-  <si>
-    <t>Wage Growth Rate in Mining Sector</t>
-  </si>
-  <si>
-    <t>Ratio of Mining Wages to National Average Wage</t>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>Measures the volume of minerals extracted, providing insight into production scale.</t>
+  </si>
+  <si>
+    <t>Sum of all mineral output (tons)</t>
+  </si>
+  <si>
+    <t>2.2.2</t>
+  </si>
+  <si>
+    <t>Indicates the economic contribution of mining to the GDP.</t>
+  </si>
+  <si>
+    <t>Value of output - Value of intermediate consumption</t>
+  </si>
+  <si>
+    <t>2.2.3</t>
+  </si>
+  <si>
+    <t>2.2.4</t>
+  </si>
+  <si>
+    <t>Shows year-on-year changes in mining production to assess sector growth.</t>
+  </si>
+  <si>
+    <t>(Production in Current Year - Production in Previous Year) / Production in Previous Year * 100</t>
+  </si>
+  <si>
+    <t>2.2.5</t>
+  </si>
+  <si>
+    <t>Represents the significance of mining in the overall economy.</t>
+  </si>
+  <si>
+    <t>(Gross Mining Value Added / Total GDP) * 100</t>
+  </si>
+  <si>
+    <t>2.9.1</t>
+  </si>
+  <si>
+    <t>Measures efficiency in water usage, highlighting environmental impact.</t>
+  </si>
+  <si>
+    <t>Total Water Consumed / Total Mineral Production</t>
+  </si>
+  <si>
+    <t>2.9.2</t>
+  </si>
+  <si>
+    <t>Assesses the carbon footprint of mining operations.</t>
+  </si>
+  <si>
+    <t>Total CO2 Emissions / Total Ore Processed</t>
+  </si>
+  <si>
+    <t>2.9.3</t>
+  </si>
+  <si>
+    <t>Indicates the amount of waste material generated, impacting environmental management.</t>
+  </si>
+  <si>
+    <t>Sum of Waste Rock + Tailings</t>
+  </si>
+  <si>
+    <t>2.9.4</t>
+  </si>
+  <si>
+    <t>Evaluates energy efficiency in mining operations.</t>
+  </si>
+  <si>
+    <t>Total Energy Consumed / Total Mineral Production</t>
+  </si>
+  <si>
+    <t>2.9.5</t>
+  </si>
+  <si>
+    <t>Tracks the percentage of mined land that has been restored.</t>
+  </si>
+  <si>
+    <t>(Area of Land Reclaimed / Total Area Mined) * 100</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
+  </si>
+  <si>
+    <t>Measures the proportion of intermediate inputs in total production costs.</t>
+  </si>
+  <si>
+    <t>(Total Intermediate Inputs / Total Output) * 100</t>
+  </si>
+  <si>
+    <t>2.3.2</t>
+  </si>
+  <si>
+    <t>Tracks expenditure on chemicals, indicating operational efficiency.</t>
+  </si>
+  <si>
+    <t>Sum of all chemical costs used in mining operations</t>
+  </si>
+  <si>
+    <t>2.3.3</t>
+  </si>
+  <si>
+    <t>Evaluates energy cost efficiency in processing ore.</t>
+  </si>
+  <si>
+    <t>Total Energy Cost / Total Ore Processed</t>
+  </si>
+  <si>
+    <t>2.3.4</t>
+  </si>
+  <si>
+    <t>Measures the amount of explosives used, impacting costs and environmental safety.</t>
+  </si>
+  <si>
+    <t>Total Explosives Used / Total Ore Processed</t>
+  </si>
+  <si>
+    <t>2.3.5</t>
+  </si>
+  <si>
+    <t>Indicates the proportion of maintenance costs, reflecting equipment reliability.</t>
+  </si>
+  <si>
+    <t>(Total Maintenance Costs / Total Operational Costs) * 100</t>
+  </si>
+  <si>
+    <t>2.4.1</t>
+  </si>
+  <si>
+    <t>Tracks employment levels, providing insights into labor needs and workforce stability.</t>
+  </si>
+  <si>
+    <t>Total number of employees engaged in mining activities</t>
+  </si>
+  <si>
+    <t>2.4.2</t>
+  </si>
+  <si>
+    <t>Measures the average workload of employees, indicating productivity and labor conditions.</t>
+  </si>
+  <si>
+    <t>Total Hours Worked / Total Number of Employees</t>
+  </si>
+  <si>
+    <t>2.4.3</t>
+  </si>
+  <si>
+    <t>Indicates the share of skilled workers, impacting operational efficiency and innovation.</t>
+  </si>
+  <si>
+    <t>(Number of Skilled Employees / Total Employees) * 100</t>
+  </si>
+  <si>
+    <t>2.4.4</t>
+  </si>
+  <si>
+    <t>Tracks safety performance, reflecting the effectiveness of safety protocols.</t>
+  </si>
+  <si>
+    <t>(Total Number of Accidents / Total Employees) * 1000</t>
+  </si>
+  <si>
+    <t>2.4.5</t>
+  </si>
+  <si>
+    <t>Measures gender diversity in the mining workforce.</t>
+  </si>
+  <si>
+    <t>(Number of Female Employees / Total Employees) * 100</t>
+  </si>
+  <si>
+    <t>2.5.1</t>
+  </si>
+  <si>
+    <t>Tracks income levels in the mining sector, reflecting living standards and labor costs.</t>
+  </si>
+  <si>
+    <t>Total Wages Paid / Total Employees</t>
+  </si>
+  <si>
+    <t>2.5.2</t>
+  </si>
+  <si>
+    <t>Indicates changes in income levels over time, reflecting economic conditions.</t>
+  </si>
+  <si>
+    <t>(Current Year Average Wage - Previous Year Average Wage) / Previous Year Average Wage * 100</t>
+  </si>
+  <si>
+    <t>2.5.3</t>
+  </si>
+  <si>
+    <t>Compares mining wages to the national average, assessing the attractiveness of the sector.</t>
+  </si>
+  <si>
+    <t>Average Mining Wage / National Average Wage</t>
   </si>
   <si>
     <t>Bonuses and Incentives as Percentage of Total Wages</t>
   </si>
   <si>
-    <t>Gender Pay Gap in Mining Sector</t>
-  </si>
-  <si>
-    <t>Total Investment in Mining Projects</t>
-  </si>
-  <si>
-    <t>Exploration Expenditure as Percentage of Total Investment</t>
-  </si>
-  <si>
-    <t>Investment in Research and Development</t>
-  </si>
-  <si>
-    <t>Capital Expenditure per Ton of Production</t>
-  </si>
-  <si>
-    <t>Investment in Environmental Technologies</t>
-  </si>
-  <si>
-    <t>Value of Mineral Exports</t>
+    <t>2.5.4</t>
+  </si>
+  <si>
+    <t>Measures the extent of performance-based incentives in the mining sector.</t>
+  </si>
+  <si>
+    <t>(Total Bonuses and Incentives / Total Wages) * 100</t>
+  </si>
+  <si>
+    <t>2.5.5</t>
+  </si>
+  <si>
+    <t>Assesses pay equality between male and female employees in the mining sector.</t>
+  </si>
+  <si>
+    <t>(Average Male Wage - Average Female Wage) / Average Male Wage * 100</t>
+  </si>
+  <si>
+    <t>2.6.1</t>
+  </si>
+  <si>
+    <t>Measures the total amount of capital invested in mining operations.</t>
+  </si>
+  <si>
+    <t>Sum of all investment expenditures in mining projects</t>
+  </si>
+  <si>
+    <t>2.6.2</t>
+  </si>
+  <si>
+    <t>Tracks the proportion of investment directed towards exploration.</t>
+  </si>
+  <si>
+    <t>(Exploration Expenditure / Total Investment) * 100</t>
+  </si>
+  <si>
+    <t>2.6.3</t>
+  </si>
+  <si>
+    <t>Measures the amount invested in R&amp;D to improve mining techniques and technology.</t>
+  </si>
+  <si>
+    <t>Sum of R&amp;D expenditures</t>
+  </si>
+  <si>
+    <t>2.6.4</t>
+  </si>
+  <si>
+    <t>Evaluates the efficiency of capital investment in relation to production volume.</t>
+  </si>
+  <si>
+    <t>2.6.5</t>
+  </si>
+  <si>
+    <t>Measures the level of investment dedicated to minimizing environmental impact.</t>
+  </si>
+  <si>
+    <t>Sum of expenditures on environmental technologies</t>
+  </si>
+  <si>
+    <t>2.7.1</t>
+  </si>
+  <si>
+    <t>Tracks the revenue generated from exporting minerals.</t>
+  </si>
+  <si>
+    <t>Sum of export revenues</t>
   </si>
   <si>
     <t>Share of Mineral Exports in Total Exports</t>
   </si>
   <si>
-    <t>Annual Growth Rate of Mineral Exports</t>
-  </si>
-  <si>
-    <t>Export Price Index for Minerals</t>
-  </si>
-  <si>
-    <t>Number of Export Destinations for Minerals</t>
-  </si>
-  <si>
-    <t>Value of Mining-related Imports</t>
-  </si>
-  <si>
-    <t>Share of Mining Equipment in Total Imports</t>
-  </si>
-  <si>
-    <t>Annual Growth Rate of Mining-related Imports</t>
-  </si>
-  <si>
-    <t>Cost of Imported Energy for Mining</t>
-  </si>
-  <si>
-    <t>Import Dependency Ratio for Key Inputs</t>
-  </si>
-  <si>
-    <t>Percentage of Automated Processes in Mining</t>
-  </si>
-  <si>
-    <t>Investment in AI Technologies for Mining</t>
-  </si>
-  <si>
-    <t>Number of Autonomous Vehicles in Operation</t>
-  </si>
-  <si>
-    <t>AI-Driven Predictive Maintenance Implementation Rate</t>
-  </si>
-  <si>
-    <t>Reduction in Downtime Due to Automation</t>
-  </si>
-  <si>
-    <t>Number of Patents Filed Related to Mining</t>
-  </si>
-  <si>
-    <t>R&amp;D Expenditure as Percentage of Revenue</t>
-  </si>
-  <si>
-    <t>Collaboration with Universities and Research Centers (Number of Projects)</t>
-  </si>
-  <si>
-    <t>Number of Innovations Adopted in Mining Processes</t>
-  </si>
-  <si>
-    <t>Innovation Index for Mining Sector</t>
-  </si>
-  <si>
-    <t>2.2.1</t>
-  </si>
-  <si>
-    <t>2.2.2</t>
-  </si>
-  <si>
-    <t>2.2.3</t>
-  </si>
-  <si>
-    <t>2.2.4</t>
-  </si>
-  <si>
-    <t>2.2.5</t>
-  </si>
-  <si>
-    <t>2.9.1</t>
-  </si>
-  <si>
-    <t>2.9.2</t>
-  </si>
-  <si>
-    <t>2.9.3</t>
-  </si>
-  <si>
-    <t>2.9.4</t>
-  </si>
-  <si>
-    <t>2.9.5</t>
-  </si>
-  <si>
-    <t>2.3.1</t>
-  </si>
-  <si>
-    <t>2.3.2</t>
-  </si>
-  <si>
-    <t>2.3.3</t>
-  </si>
-  <si>
-    <t>2.3.4</t>
-  </si>
-  <si>
-    <t>2.3.5</t>
-  </si>
-  <si>
-    <t>2.4.1</t>
-  </si>
-  <si>
-    <t>2.4.2</t>
-  </si>
-  <si>
-    <t>2.4.3</t>
-  </si>
-  <si>
-    <t>2.4.4</t>
-  </si>
-  <si>
-    <t>2.4.5</t>
-  </si>
-  <si>
-    <t>2.5.1</t>
-  </si>
-  <si>
-    <t>2.5.2</t>
-  </si>
-  <si>
-    <t>2.5.3</t>
-  </si>
-  <si>
-    <t>2.5.4</t>
-  </si>
-  <si>
-    <t>2.5.5</t>
-  </si>
-  <si>
-    <t>2.6.1</t>
-  </si>
-  <si>
-    <t>2.6.2</t>
-  </si>
-  <si>
-    <t>2.6.3</t>
-  </si>
-  <si>
-    <t>2.6.4</t>
-  </si>
-  <si>
-    <t>2.6.5</t>
-  </si>
-  <si>
-    <t>2.7.1</t>
-  </si>
-  <si>
     <t>2.7.2</t>
   </si>
   <si>
+    <t>Represents the importance of mining exports in the overall export basket.</t>
+  </si>
+  <si>
+    <t>(Value of Mineral Exports / Total Exports) * 100</t>
+  </si>
+  <si>
     <t>2.7.3</t>
   </si>
   <si>
+    <t>Indicates changes in export performance over time.</t>
+  </si>
+  <si>
+    <t>(Current Year Exports - Previous Year Exports) / Previous Year Exports * 100</t>
+  </si>
+  <si>
     <t>2.7.4</t>
   </si>
   <si>
+    <t>Tracks changes in the prices of exported minerals.</t>
+  </si>
+  <si>
+    <t>Current Price / Base Year Price * 100</t>
+  </si>
+  <si>
     <t>2.7.5</t>
   </si>
   <si>
+    <t>Measures the diversity of international markets for mining exports.</t>
+  </si>
+  <si>
+    <t>Count of distinct export destinations</t>
+  </si>
+  <si>
     <t>2.8.1</t>
   </si>
   <si>
+    <t>Tracks the expenditure on mining-related imports, reflecting the dependence on international suppliers.</t>
+  </si>
+  <si>
+    <t>Sum of all expenditures on mining-related imports</t>
+  </si>
+  <si>
     <t>2.8.2</t>
   </si>
   <si>
+    <t>Indicates the proportion of mining equipment in overall imports, reflecting the importance of mining investments.</t>
+  </si>
+  <si>
+    <t>(Value of Mining Equipment Imports / Total Imports) * 100</t>
+  </si>
+  <si>
     <t>2.8.3</t>
   </si>
   <si>
+    <t>Measures the year-on-year change in the value of mining-related imports to assess market trends.</t>
+  </si>
+  <si>
+    <t>(Value of Current Year Imports - Value of Previous Year Imports) / Value of Previous Year Imports * 100</t>
+  </si>
+  <si>
     <t>2.8.4</t>
   </si>
   <si>
+    <t>Evaluates the total expenditure on imported energy for mining activities.</t>
+  </si>
+  <si>
+    <t>Sum of all energy-related import costs used in mining operations</t>
+  </si>
+  <si>
     <t>2.8.5</t>
   </si>
   <si>
+    <t>Indicates the extent to which the mining sector relies on imported inputs.</t>
+  </si>
+  <si>
+    <t>(Value of Imported Key Inputs / Total Value of Key Inputs) * 100</t>
+  </si>
+  <si>
     <t>2.11.1</t>
   </si>
   <si>
+    <t>Represents the extent of automation in mining, impacting productivity and efficiency.</t>
+  </si>
+  <si>
+    <t>(Number of Automated Processes / Total Number of Processes) * 100</t>
+  </si>
+  <si>
     <t>2.11.2</t>
   </si>
   <si>
+    <t>Tracks the capital spent on AI technologies, indicating the level of technological advancement.</t>
+  </si>
+  <si>
+    <t>Sum of all expenditures on AI-related technologies in mining</t>
+  </si>
+  <si>
     <t>2.11.3</t>
   </si>
   <si>
+    <t>Measures the adoption of autonomous vehicle technology, reflecting modernization in mining operations.</t>
+  </si>
+  <si>
+    <t>Count of autonomous vehicles in operation</t>
+  </si>
+  <si>
     <t>2.11.4</t>
   </si>
   <si>
+    <t>Indicates the use of AI for predictive maintenance, reducing unexpected equipment failures.</t>
+  </si>
+  <si>
+    <t>(Number of Assets with AI Predictive Maintenance / Total Assets) * 100</t>
+  </si>
+  <si>
     <t>2.11.5</t>
   </si>
   <si>
+    <t>Assesses the impact of automation in reducing equipment and operation downtime.</t>
+  </si>
+  <si>
+    <t>(Downtime Before Automation - Downtime After Automation) / Downtime Before Automation * 100</t>
+  </si>
+  <si>
     <t>2.10.1</t>
   </si>
   <si>
+    <t>Measures innovation in mining by tracking the number of patents filed.</t>
+  </si>
+  <si>
+    <t>Count of patents filed related to mining technologies and methods</t>
+  </si>
+  <si>
     <t>2.10.2</t>
   </si>
   <si>
+    <t>Represents the investment in research and development relative to revenue, indicating innovation capacity.</t>
+  </si>
+  <si>
+    <t>(Total R&amp;D Expenditure / Total Revenue) * 100</t>
+  </si>
+  <si>
     <t>2.10.3</t>
   </si>
   <si>
+    <t>Tracks the number of collaborative projects with academic and research institutions, fostering innovation.</t>
+  </si>
+  <si>
+    <t>Count of collaborative projects with universities and research centers</t>
+  </si>
+  <si>
     <t>2.10.4</t>
   </si>
   <si>
+    <t>Measures the level of innovation adoption in mining processes.</t>
+  </si>
+  <si>
+    <t>Count of innovations adopted</t>
+  </si>
+  <si>
     <t>2.10.5</t>
   </si>
   <si>
+    <t>Provides an overall score of the mining sector's innovation capacity and performance.</t>
+  </si>
+  <si>
+    <t>Composite index based on various innovation metrics</t>
+  </si>
+  <si>
     <t>2.10.6</t>
   </si>
   <si>
-    <t>Measures the volume of minerals extracted, providing insight into production scale.</t>
-  </si>
-  <si>
-    <t>Indicates the economic contribution of mining to the GDP.</t>
-  </si>
-  <si>
-    <t>Tracks changes in mining production over time.</t>
-  </si>
-  <si>
-    <t>Shows year-on-year changes in mining production to assess sector growth.</t>
-  </si>
-  <si>
-    <t>Represents the significance of mining in the overall economy.</t>
-  </si>
-  <si>
-    <t>Measures efficiency in water usage, highlighting environmental impact.</t>
-  </si>
-  <si>
-    <t>Assesses the carbon footprint of mining operations.</t>
-  </si>
-  <si>
-    <t>Indicates the amount of waste material generated, impacting environmental management.</t>
-  </si>
-  <si>
-    <t>Evaluates energy efficiency in mining operations.</t>
-  </si>
-  <si>
-    <t>Tracks the percentage of mined land that has been restored.</t>
-  </si>
-  <si>
-    <t>Measures the proportion of intermediate inputs in total production costs.</t>
-  </si>
-  <si>
-    <t>Tracks expenditure on chemicals, indicating operational efficiency.</t>
-  </si>
-  <si>
-    <t>Evaluates energy cost efficiency in processing ore.</t>
-  </si>
-  <si>
-    <t>Measures the amount of explosives used, impacting costs and environmental safety.</t>
-  </si>
-  <si>
-    <t>Indicates the proportion of maintenance costs, reflecting equipment reliability.</t>
-  </si>
-  <si>
-    <t>Tracks employment levels, providing insights into labor needs and workforce stability.</t>
-  </si>
-  <si>
-    <t>Measures the average workload of employees, indicating productivity and labor conditions.</t>
-  </si>
-  <si>
-    <t>Indicates the share of skilled workers, impacting operational efficiency and innovation.</t>
-  </si>
-  <si>
-    <t>Tracks safety performance, reflecting the effectiveness of safety protocols.</t>
-  </si>
-  <si>
-    <t>Measures gender diversity in the mining workforce.</t>
-  </si>
-  <si>
-    <t>Tracks income levels in the mining sector, reflecting living standards and labor costs.</t>
-  </si>
-  <si>
-    <t>Indicates changes in income levels over time, reflecting economic conditions.</t>
-  </si>
-  <si>
-    <t>Compares mining wages to the national average, assessing the attractiveness of the sector.</t>
-  </si>
-  <si>
-    <t>Measures the extent of performance-based incentives in the mining sector.</t>
-  </si>
-  <si>
-    <t>Assesses pay equality between male and female employees in the mining sector.</t>
-  </si>
-  <si>
-    <t>Measures the total amount of capital invested in mining operations.</t>
-  </si>
-  <si>
-    <t>Tracks the proportion of investment directed towards exploration.</t>
-  </si>
-  <si>
-    <t>Measures the amount invested in R&amp;D to improve mining techniques and technology.</t>
-  </si>
-  <si>
-    <t>Evaluates the efficiency of capital investment in relation to production volume.</t>
-  </si>
-  <si>
-    <t>Measures the level of investment dedicated to minimizing environmental impact.</t>
-  </si>
-  <si>
-    <t>Tracks the revenue generated from exporting minerals.</t>
-  </si>
-  <si>
-    <t>Represents the importance of mining exports in the overall export basket.</t>
-  </si>
-  <si>
-    <t>Indicates changes in export performance over time.</t>
-  </si>
-  <si>
-    <t>Tracks changes in the prices of exported minerals.</t>
-  </si>
-  <si>
-    <t>Measures the diversity of international markets for mining exports.</t>
-  </si>
-  <si>
-    <t>Tracks the expenditure on mining-related imports, reflecting the dependence on international suppliers.</t>
-  </si>
-  <si>
-    <t>Indicates the proportion of mining equipment in overall imports, reflecting the importance of mining investments.</t>
-  </si>
-  <si>
-    <t>Measures the year-on-year change in the value of mining-related imports to assess market trends.</t>
-  </si>
-  <si>
-    <t>Evaluates the total expenditure on imported energy for mining activities.</t>
-  </si>
-  <si>
-    <t>Indicates the extent to which the mining sector relies on imported inputs.</t>
-  </si>
-  <si>
-    <t>Represents the extent of automation in mining, impacting productivity and efficiency.</t>
-  </si>
-  <si>
-    <t>Tracks the capital spent on AI technologies, indicating the level of technological advancement.</t>
-  </si>
-  <si>
-    <t>Measures the adoption of autonomous vehicle technology, reflecting modernization in mining operations.</t>
-  </si>
-  <si>
-    <t>Indicates the use of AI for predictive maintenance, reducing unexpected equipment failures.</t>
-  </si>
-  <si>
-    <t>Assesses the impact of automation in reducing equipment and operation downtime.</t>
-  </si>
-  <si>
-    <t>Measures innovation in mining by tracking the number of patents filed.</t>
-  </si>
-  <si>
-    <t>Represents the investment in research and development relative to revenue, indicating innovation capacity.</t>
-  </si>
-  <si>
-    <t>Tracks the number of collaborative projects with academic and research institutions, fostering innovation.</t>
-  </si>
-  <si>
-    <t>Measures the level of innovation adoption in mining processes.</t>
-  </si>
-  <si>
-    <t>Provides an overall score of the mining sector's innovation capacity and performance.</t>
-  </si>
-  <si>
     <t>Expected Investment reflects the anticipated financial commitment investors are willing to allocate toward mining projects.</t>
   </si>
   <si>
-    <t>Sum of all mineral output (tons)</t>
-  </si>
-  <si>
-    <t>Value of output - Value of intermediate consumption</t>
-  </si>
-  <si>
-    <t>Current production / Base year production * 100</t>
-  </si>
-  <si>
-    <t>(Production in Current Year - Production in Previous Year) / Production in Previous Year * 100</t>
-  </si>
-  <si>
-    <t>(Gross Mining Value Added / Total GDP) * 100</t>
-  </si>
-  <si>
-    <t>Total Water Consumed / Total Mineral Production</t>
-  </si>
-  <si>
-    <t>Total CO2 Emissions / Total Ore Processed</t>
-  </si>
-  <si>
-    <t>Sum of Waste Rock + Tailings</t>
-  </si>
-  <si>
-    <t>Total Energy Consumed / Total Mineral Production</t>
-  </si>
-  <si>
-    <t>(Area of Land Reclaimed / Total Area Mined) * 100</t>
-  </si>
-  <si>
-    <t>(Total Intermediate Inputs / Total Output) * 100</t>
-  </si>
-  <si>
-    <t>Sum of all chemical costs used in mining operations</t>
-  </si>
-  <si>
-    <t>Total Energy Cost / Total Ore Processed</t>
-  </si>
-  <si>
-    <t>Total Explosives Used / Total Ore Processed</t>
-  </si>
-  <si>
-    <t>(Total Maintenance Costs / Total Operational Costs) * 100</t>
-  </si>
-  <si>
-    <t>Total number of employees engaged in mining activities</t>
-  </si>
-  <si>
-    <t>Total Hours Worked / Total Number of Employees</t>
-  </si>
-  <si>
-    <t>(Number of Skilled Employees / Total Employees) * 100</t>
-  </si>
-  <si>
-    <t>(Total Number of Accidents / Total Employees) * 1000</t>
-  </si>
-  <si>
-    <t>(Number of Female Employees / Total Employees) * 100</t>
-  </si>
-  <si>
-    <t>Total Wages Paid / Total Employees</t>
-  </si>
-  <si>
-    <t>(Current Year Average Wage - Previous Year Average Wage) / Previous Year Average Wage * 100</t>
-  </si>
-  <si>
-    <t>Average Mining Wage / National Average Wage</t>
-  </si>
-  <si>
-    <t>(Total Bonuses and Incentives / Total Wages) * 100</t>
-  </si>
-  <si>
-    <t>(Average Male Wage - Average Female Wage) / Average Male Wage * 100</t>
-  </si>
-  <si>
-    <t>Sum of all investment expenditures in mining projects</t>
-  </si>
-  <si>
-    <t>(Exploration Expenditure / Total Investment) * 100</t>
-  </si>
-  <si>
-    <t>Sum of R&amp;D expenditures</t>
-  </si>
-  <si>
-    <t>Total Capital Expenditure / Total Production</t>
-  </si>
-  <si>
-    <t>Sum of expenditures on environmental technologies</t>
-  </si>
-  <si>
-    <t>Sum of export revenues</t>
-  </si>
-  <si>
-    <t>(Value of Mineral Exports / Total Exports) * 100</t>
-  </si>
-  <si>
-    <t>(Current Year Exports - Previous Year Exports) / Previous Year Exports * 100</t>
-  </si>
-  <si>
-    <t>Current Price / Base Year Price * 100</t>
-  </si>
-  <si>
-    <t>Count of distinct export destinations</t>
-  </si>
-  <si>
-    <t>Sum of all expenditures on mining-related imports</t>
-  </si>
-  <si>
-    <t>(Value of Mining Equipment Imports / Total Imports) * 100</t>
-  </si>
-  <si>
-    <t>(Value of Current Year Imports - Value of Previous Year Imports) / Value of Previous Year Imports * 100</t>
-  </si>
-  <si>
-    <t>Sum of all energy-related import costs used in mining operations</t>
-  </si>
-  <si>
-    <t>(Value of Imported Key Inputs / Total Value of Key Inputs) * 100</t>
-  </si>
-  <si>
-    <t>(Number of Automated Processes / Total Number of Processes) * 100</t>
-  </si>
-  <si>
-    <t>Sum of all expenditures on AI-related technologies in mining</t>
-  </si>
-  <si>
-    <t>Count of autonomous vehicles in operation</t>
-  </si>
-  <si>
-    <t>(Number of Assets with AI Predictive Maintenance / Total Assets) * 100</t>
-  </si>
-  <si>
-    <t>(Downtime Before Automation - Downtime After Automation) / Downtime Before Automation * 100</t>
-  </si>
-  <si>
-    <t>Count of patents filed related to mining technologies and methods</t>
-  </si>
-  <si>
-    <t>(Total R&amp;D Expenditure / Total Revenue) * 100</t>
-  </si>
-  <si>
-    <t>Count of collaborative projects with universities and research centers</t>
-  </si>
-  <si>
-    <t>Count of innovations adopted</t>
-  </si>
-  <si>
-    <t>Composite index based on various innovation metrics</t>
-  </si>
-  <si>
-    <t>National Mining Statistics Reports</t>
-  </si>
-  <si>
-    <t>Central Bank Data, National Accounts</t>
-  </si>
-  <si>
-    <t>National Statistics Office</t>
-  </si>
-  <si>
-    <t>Ministry of Mining Annual Reports</t>
-  </si>
-  <si>
-    <t>National Accounts, Central Bank</t>
-  </si>
-  <si>
-    <t>Environmental Reports from Mining Companies</t>
-  </si>
-  <si>
-    <t>Environmental Protection Agency Reports</t>
-  </si>
-  <si>
-    <t>Mining Company Sustainability Reports</t>
-  </si>
-  <si>
-    <t>Energy Usage Reports from Mining Companies</t>
-  </si>
-  <si>
-    <t>Ministry of Environment Reports</t>
-  </si>
-  <si>
-    <t>Financial Statements of Mining Companies</t>
-  </si>
-  <si>
-    <t>Mining Company Procurement Reports</t>
-  </si>
-  <si>
-    <t>Energy Bills and Mining Company Cost Reports</t>
-  </si>
-  <si>
-    <t>Mining Safety and Procurement Reports</t>
-  </si>
-  <si>
-    <t>Company Financial Reports</t>
-  </si>
-  <si>
-    <t>Mining Sector Employment Reports</t>
-  </si>
-  <si>
-    <t>Labor Statistics Reports</t>
-  </si>
-  <si>
-    <t>HR Reports from Mining Companies</t>
-  </si>
-  <si>
-    <t>Workplace Safety Reports</t>
-  </si>
-  <si>
-    <t>Gender Equality Reports</t>
-  </si>
-  <si>
-    <t>Payroll Reports from Mining Companies</t>
-  </si>
-  <si>
-    <t>Company Payroll Reports</t>
-  </si>
-  <si>
-    <t>Mining Investment Reports</t>
-  </si>
-  <si>
-    <t>Exploration Reports from Mining Companies</t>
-  </si>
-  <si>
-    <t>R&amp;D Expenditure Reports</t>
-  </si>
-  <si>
-    <t>Financial Reports</t>
-  </si>
-  <si>
-    <t>Environmental Investment Reports</t>
-  </si>
-  <si>
-    <t>Export Trade Reports</t>
-  </si>
-  <si>
-    <t>Trade Statistics Office</t>
-  </si>
-  <si>
-    <t>Ministry of Trade Reports</t>
-  </si>
-  <si>
-    <t>Price Index Reports</t>
-  </si>
-  <si>
-    <t>Trade and Export Reports</t>
-  </si>
-  <si>
-    <t>Trade and Customs Import Reports</t>
-  </si>
-  <si>
-    <t>National Trade Statistics</t>
-  </si>
-  <si>
-    <t>Customs and Trade Reports</t>
-  </si>
-  <si>
-    <t>Energy and Import Financial Reports</t>
-  </si>
-  <si>
-    <t>Procurement and Trade Analysis Reports</t>
-  </si>
-  <si>
-    <t>Company Automation Implementation Reports</t>
-  </si>
-  <si>
-    <t>Technology and Investment Financial Records</t>
-  </si>
-  <si>
-    <t>Fleet Management and Technology Reports</t>
-  </si>
-  <si>
-    <t>Maintenance and AI Integration Reports</t>
-  </si>
-  <si>
-    <t>Operational Efficiency Reports</t>
-  </si>
-  <si>
-    <t>Patent Office Records</t>
-  </si>
-  <si>
-    <t>Financial and R&amp;D Expenditure Reports</t>
-  </si>
-  <si>
-    <t>R&amp;D Collaboration Reports</t>
-  </si>
-  <si>
-    <t>Innovation Adoption Reports from Mining Companies</t>
-  </si>
-  <si>
-    <t>National Innovation Surveys and Industry Reports</t>
+    <t>Ministry of Industry and Mineral Resources and GASTAT</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Broken down by economic activity, size class</t>
+  </si>
+  <si>
+    <t>Number of export destinations for minerals</t>
+  </si>
+  <si>
+    <t>Export price index for minerals</t>
+  </si>
+  <si>
+    <t>Annual growth rate of mineral exports</t>
+  </si>
+  <si>
+    <t>Value of mineral exports</t>
+  </si>
+  <si>
+    <t>Value of mining-related imports</t>
+  </si>
+  <si>
+    <t>Share of mining equipment in total imports</t>
+  </si>
+  <si>
+    <t>Annual growth rate of mining-related imports</t>
+  </si>
+  <si>
+    <t>Cost of imported energy for mining</t>
+  </si>
+  <si>
+    <t>Import dependency ratio for key inputs</t>
+  </si>
+  <si>
+    <t>Number of patents filed related to mining</t>
+  </si>
+  <si>
+    <t>R&amp;D Expenditure as percentage of revenue</t>
+  </si>
+  <si>
+    <t>Collaboration with universities and research Centers (Number of projects)</t>
+  </si>
+  <si>
+    <t>Number of innovations adopted in mining processes</t>
+  </si>
+  <si>
+    <t>Innovation index for mining sector</t>
+  </si>
+  <si>
+    <t>Number of projects</t>
+  </si>
+  <si>
+    <t>Percentage of automated processes in mining</t>
+  </si>
+  <si>
+    <t>Investment in AI technologies for mining</t>
+  </si>
+  <si>
+    <t>Number of autonomous vehicles in operation</t>
+  </si>
+  <si>
+    <t>AI-driven predictive maintenance implementation rate</t>
+  </si>
+  <si>
+    <t>Reduction in downtime due to automation</t>
+  </si>
+  <si>
+    <t>Total investment in mining projects</t>
+  </si>
+  <si>
+    <t>Exploration expenditure as percentage of total investment</t>
+  </si>
+  <si>
+    <t>Investment in research and development</t>
+  </si>
+  <si>
+    <t>Capital expenditure per ton of production</t>
+  </si>
+  <si>
+    <t>Investment in environmental technologies</t>
+  </si>
+  <si>
+    <t>Total Capital Expenditure / Total Production*100</t>
+  </si>
+  <si>
+    <t>Total mineral production</t>
+  </si>
+  <si>
+    <t>Gross mining value added</t>
+  </si>
+  <si>
+    <t>Annual growth rate of mineral production</t>
+  </si>
+  <si>
+    <t>Share of mining in GDP</t>
+  </si>
+  <si>
+    <t>Water consumption per unit of production</t>
+  </si>
+  <si>
+    <t>Greenhouse gas emissions</t>
+  </si>
+  <si>
+    <t>Waste rock and tailings generated</t>
+  </si>
+  <si>
+    <t>Energy consumption per unit of production</t>
+  </si>
+  <si>
+    <t>Land reclamation rate</t>
+  </si>
+  <si>
+    <t>Intermediate inputs as percentage of total output</t>
+  </si>
+  <si>
+    <t>Cost of chemicals used in mining operations</t>
+  </si>
+  <si>
+    <t>Energy cost per ton of ore processed</t>
+  </si>
+  <si>
+    <t>Explosives consumption per ton of ore</t>
+  </si>
+  <si>
+    <t>Maintenance cost as a share of total costs</t>
+  </si>
+  <si>
+    <t>Number of employees in mining sector</t>
+  </si>
+  <si>
+    <t>Average hours worked per employee per week</t>
+  </si>
+  <si>
+    <t>Percentage of skilled workforce</t>
+  </si>
+  <si>
+    <t>Accident rate (Number of accidents per 1,000 workers)</t>
+  </si>
+  <si>
+    <t>Female employment rate in mining</t>
+  </si>
+  <si>
+    <t>Average wage per employee in mining</t>
+  </si>
+  <si>
+    <t>Wage growth rate in mining sector</t>
+  </si>
+  <si>
+    <t>Ratio of mining wages to national average wage</t>
+  </si>
+  <si>
+    <t>Gender pay gap in mining sector</t>
   </si>
 </sst>
 </file>
@@ -2251,7 +2110,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2259,6 +2118,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2617,16 +2479,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="3" width="54.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
     <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5546875" customWidth="1"/>
     <col min="6" max="6" width="29.109375" bestFit="1" customWidth="1"/>
@@ -2635,8 +2495,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>315</v>
+      <c r="A1" t="s">
+        <v>314</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2645,16 +2505,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -2663,22 +2523,22 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
@@ -2687,49 +2547,49 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I2" t="s">
         <v>136</v>
       </c>
       <c r="J2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P2" t="s">
         <v>19</v>
@@ -2737,49 +2597,49 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I3" t="s">
         <v>231</v>
       </c>
-      <c r="F3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K3" t="s">
         <v>227</v>
       </c>
-      <c r="H3" t="s">
-        <v>233</v>
-      </c>
-      <c r="I3" t="s">
-        <v>232</v>
-      </c>
-      <c r="J3" t="s">
-        <v>153</v>
-      </c>
-      <c r="K3" t="s">
-        <v>228</v>
-      </c>
       <c r="L3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P3" t="s">
         <v>19</v>
@@ -2787,7 +2647,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -2796,40 +2656,40 @@
         <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" t="s">
         <v>235</v>
       </c>
-      <c r="F4" t="s">
-        <v>226</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
+        <v>236</v>
+      </c>
+      <c r="J4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K4" t="s">
         <v>227</v>
       </c>
-      <c r="H4" t="s">
-        <v>236</v>
-      </c>
-      <c r="I4" t="s">
-        <v>237</v>
-      </c>
-      <c r="J4" t="s">
-        <v>153</v>
-      </c>
-      <c r="K4" t="s">
-        <v>228</v>
-      </c>
       <c r="L4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P4" t="s">
         <v>19</v>
@@ -2837,7 +2697,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -2846,40 +2706,40 @@
         <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H5" t="s">
+        <v>237</v>
+      </c>
+      <c r="I5" t="s">
+        <v>238</v>
+      </c>
+      <c r="J5" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" t="s">
         <v>227</v>
       </c>
-      <c r="H5" t="s">
-        <v>238</v>
-      </c>
-      <c r="I5" t="s">
-        <v>239</v>
-      </c>
-      <c r="J5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K5" t="s">
-        <v>228</v>
-      </c>
       <c r="L5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P5" t="s">
         <v>19</v>
@@ -2887,7 +2747,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -2896,48 +2756,48 @@
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G6" t="s">
+        <v>226</v>
+      </c>
+      <c r="H6" t="s">
+        <v>240</v>
+      </c>
+      <c r="I6" t="s">
+        <v>239</v>
+      </c>
+      <c r="J6" t="s">
+        <v>152</v>
+      </c>
+      <c r="K6" t="s">
         <v>227</v>
       </c>
-      <c r="H6" t="s">
+      <c r="L6" t="s">
+        <v>165</v>
+      </c>
+      <c r="M6" t="s">
+        <v>163</v>
+      </c>
+      <c r="N6" t="s">
+        <v>162</v>
+      </c>
+      <c r="O6" t="s">
+        <v>148</v>
+      </c>
+      <c r="P6" t="s">
         <v>241</v>
-      </c>
-      <c r="I6" t="s">
-        <v>240</v>
-      </c>
-      <c r="J6" t="s">
-        <v>153</v>
-      </c>
-      <c r="K6" t="s">
-        <v>228</v>
-      </c>
-      <c r="L6" t="s">
-        <v>166</v>
-      </c>
-      <c r="M6" t="s">
-        <v>164</v>
-      </c>
-      <c r="N6" t="s">
-        <v>163</v>
-      </c>
-      <c r="O6" t="s">
-        <v>149</v>
-      </c>
-      <c r="P6" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -2946,40 +2806,40 @@
         <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H7" t="s">
+        <v>242</v>
+      </c>
+      <c r="I7" t="s">
+        <v>243</v>
+      </c>
+      <c r="J7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K7" t="s">
         <v>227</v>
       </c>
-      <c r="H7" t="s">
-        <v>243</v>
-      </c>
-      <c r="I7" t="s">
-        <v>244</v>
-      </c>
-      <c r="J7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K7" t="s">
-        <v>228</v>
-      </c>
       <c r="L7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P7" t="s">
         <v>19</v>
@@ -2987,7 +2847,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -2996,40 +2856,40 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H8" t="s">
         <v>112</v>
       </c>
       <c r="I8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P8" t="s">
         <v>84</v>
@@ -3037,7 +2897,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -3046,40 +2906,40 @@
         <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H9" t="s">
         <v>113</v>
       </c>
       <c r="I9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J9" t="s">
+        <v>152</v>
+      </c>
+      <c r="K9" t="s">
+        <v>227</v>
+      </c>
+      <c r="L9" t="s">
+        <v>165</v>
+      </c>
+      <c r="M9" t="s">
+        <v>149</v>
+      </c>
+      <c r="N9" t="s">
         <v>153</v>
       </c>
-      <c r="K9" t="s">
-        <v>228</v>
-      </c>
-      <c r="L9" t="s">
-        <v>166</v>
-      </c>
-      <c r="M9" t="s">
-        <v>150</v>
-      </c>
-      <c r="N9" t="s">
-        <v>154</v>
-      </c>
       <c r="O9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P9" t="s">
         <v>84</v>
@@ -3087,7 +2947,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -3096,40 +2956,40 @@
         <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H10" t="s">
+        <v>248</v>
+      </c>
+      <c r="I10" t="s">
         <v>249</v>
       </c>
-      <c r="I10" t="s">
-        <v>250</v>
-      </c>
       <c r="J10" t="s">
+        <v>152</v>
+      </c>
+      <c r="K10" t="s">
+        <v>258</v>
+      </c>
+      <c r="L10" t="s">
+        <v>165</v>
+      </c>
+      <c r="M10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N10" t="s">
         <v>153</v>
       </c>
-      <c r="K10" t="s">
-        <v>259</v>
-      </c>
-      <c r="L10" t="s">
-        <v>166</v>
-      </c>
-      <c r="M10" t="s">
-        <v>150</v>
-      </c>
-      <c r="N10" t="s">
-        <v>154</v>
-      </c>
       <c r="O10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P10" t="s">
         <v>84</v>
@@ -3137,7 +2997,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -3146,40 +3006,40 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H11" t="s">
         <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J11" t="s">
+        <v>152</v>
+      </c>
+      <c r="K11" t="s">
+        <v>227</v>
+      </c>
+      <c r="L11" t="s">
+        <v>165</v>
+      </c>
+      <c r="M11" t="s">
+        <v>149</v>
+      </c>
+      <c r="N11" t="s">
         <v>153</v>
       </c>
-      <c r="K11" t="s">
-        <v>228</v>
-      </c>
-      <c r="L11" t="s">
-        <v>166</v>
-      </c>
-      <c r="M11" t="s">
-        <v>150</v>
-      </c>
-      <c r="N11" t="s">
-        <v>154</v>
-      </c>
       <c r="O11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P11" t="s">
         <v>84</v>
@@ -3187,7 +3047,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -3196,40 +3056,40 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H12" t="s">
+        <v>251</v>
+      </c>
+      <c r="I12" t="s">
         <v>252</v>
       </c>
-      <c r="I12" t="s">
-        <v>253</v>
-      </c>
       <c r="J12" t="s">
+        <v>152</v>
+      </c>
+      <c r="K12" t="s">
+        <v>257</v>
+      </c>
+      <c r="L12" t="s">
+        <v>165</v>
+      </c>
+      <c r="M12" t="s">
+        <v>149</v>
+      </c>
+      <c r="N12" t="s">
         <v>153</v>
       </c>
-      <c r="K12" t="s">
-        <v>258</v>
-      </c>
-      <c r="L12" t="s">
-        <v>166</v>
-      </c>
-      <c r="M12" t="s">
-        <v>150</v>
-      </c>
-      <c r="N12" t="s">
-        <v>154</v>
-      </c>
       <c r="O12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P12" t="s">
         <v>84</v>
@@ -3237,7 +3097,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -3246,40 +3106,40 @@
         <v>114</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H13" t="s">
         <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J13" t="s">
+        <v>152</v>
+      </c>
+      <c r="K13" t="s">
+        <v>257</v>
+      </c>
+      <c r="L13" t="s">
+        <v>165</v>
+      </c>
+      <c r="M13" t="s">
+        <v>149</v>
+      </c>
+      <c r="N13" t="s">
         <v>153</v>
       </c>
-      <c r="K13" t="s">
-        <v>258</v>
-      </c>
-      <c r="L13" t="s">
-        <v>166</v>
-      </c>
-      <c r="M13" t="s">
-        <v>150</v>
-      </c>
-      <c r="N13" t="s">
-        <v>154</v>
-      </c>
       <c r="O13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P13" t="s">
         <v>84</v>
@@ -3287,25 +3147,25 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H14" t="s">
         <v>17</v>
@@ -3314,22 +3174,22 @@
         <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s">
+        <v>255</v>
+      </c>
+      <c r="L14" t="s">
         <v>256</v>
       </c>
-      <c r="L14" t="s">
-        <v>257</v>
-      </c>
       <c r="M14" t="s">
+        <v>157</v>
+      </c>
+      <c r="N14" t="s">
         <v>158</v>
       </c>
-      <c r="N14" t="s">
-        <v>159</v>
-      </c>
       <c r="O14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P14" t="s">
         <v>19</v>
@@ -3337,7 +3197,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -3346,40 +3206,40 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H15" t="s">
         <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M15" t="s">
+        <v>157</v>
+      </c>
+      <c r="N15" t="s">
         <v>158</v>
       </c>
-      <c r="N15" t="s">
-        <v>159</v>
-      </c>
       <c r="O15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P15" t="s">
         <v>19</v>
@@ -3387,49 +3247,49 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F16" t="s">
         <v>261</v>
       </c>
-      <c r="D16" t="s">
-        <v>183</v>
-      </c>
-      <c r="E16" t="s">
-        <v>235</v>
-      </c>
-      <c r="F16" t="s">
-        <v>262</v>
-      </c>
       <c r="G16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H16" t="s">
         <v>24</v>
       </c>
       <c r="I16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" t="s">
+        <v>227</v>
+      </c>
+      <c r="L16" t="s">
         <v>161</v>
       </c>
-      <c r="J16" t="s">
-        <v>153</v>
-      </c>
-      <c r="K16" t="s">
-        <v>228</v>
-      </c>
-      <c r="L16" t="s">
-        <v>162</v>
-      </c>
       <c r="M16" t="s">
+        <v>157</v>
+      </c>
+      <c r="N16" t="s">
         <v>158</v>
       </c>
-      <c r="N16" t="s">
-        <v>159</v>
-      </c>
       <c r="O16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P16" t="s">
         <v>19</v>
@@ -3437,7 +3297,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -3446,40 +3306,40 @@
         <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H17" t="s">
         <v>63</v>
       </c>
       <c r="I17" t="s">
+        <v>262</v>
+      </c>
+      <c r="J17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" t="s">
         <v>263</v>
       </c>
-      <c r="J17" t="s">
-        <v>153</v>
-      </c>
-      <c r="K17" t="s">
-        <v>264</v>
-      </c>
       <c r="L17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M17" t="s">
+        <v>157</v>
+      </c>
+      <c r="N17" t="s">
         <v>158</v>
       </c>
-      <c r="N17" t="s">
-        <v>159</v>
-      </c>
       <c r="O17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P17" t="s">
         <v>84</v>
@@ -3487,25 +3347,25 @@
     </row>
     <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H18" t="s">
         <v>137</v>
@@ -3514,22 +3374,22 @@
         <v>138</v>
       </c>
       <c r="J18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P18" t="s">
         <v>87</v>
@@ -3537,7 +3397,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
@@ -3546,16 +3406,16 @@
         <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H19" t="s">
         <v>119</v>
@@ -3564,30 +3424,30 @@
         <v>58</v>
       </c>
       <c r="J19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L19" t="s">
+        <v>265</v>
+      </c>
+      <c r="M19" t="s">
+        <v>157</v>
+      </c>
+      <c r="N19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19" t="s">
+        <v>148</v>
+      </c>
+      <c r="P19" t="s">
         <v>266</v>
-      </c>
-      <c r="M19" t="s">
-        <v>158</v>
-      </c>
-      <c r="N19" t="s">
-        <v>163</v>
-      </c>
-      <c r="O19" t="s">
-        <v>149</v>
-      </c>
-      <c r="P19" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
@@ -3596,48 +3456,48 @@
         <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H20" t="s">
         <v>120</v>
       </c>
       <c r="I20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
@@ -3646,48 +3506,48 @@
         <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H21" t="s">
         <v>61</v>
       </c>
       <c r="I21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B22" t="s">
         <v>56</v>
@@ -3696,48 +3556,48 @@
         <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H22" t="s">
         <v>65</v>
       </c>
       <c r="I22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B23" t="s">
         <v>66</v>
@@ -3746,16 +3606,16 @@
         <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H23" t="s">
         <v>68</v>
@@ -3764,30 +3624,30 @@
         <v>69</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L23" t="s">
+        <v>265</v>
+      </c>
+      <c r="M23" t="s">
+        <v>157</v>
+      </c>
+      <c r="N23" t="s">
+        <v>273</v>
+      </c>
+      <c r="O23" t="s">
+        <v>148</v>
+      </c>
+      <c r="P23" t="s">
         <v>266</v>
-      </c>
-      <c r="M23" t="s">
-        <v>158</v>
-      </c>
-      <c r="N23" t="s">
-        <v>274</v>
-      </c>
-      <c r="O23" t="s">
-        <v>149</v>
-      </c>
-      <c r="P23" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B24" t="s">
         <v>66</v>
@@ -3796,16 +3656,16 @@
         <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H24" t="s">
         <v>71</v>
@@ -3814,30 +3674,30 @@
         <v>134</v>
       </c>
       <c r="J24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B25" t="s">
         <v>66</v>
@@ -3846,48 +3706,48 @@
         <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H25" t="s">
         <v>73</v>
       </c>
       <c r="I25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B26" t="s">
         <v>66</v>
@@ -3896,16 +3756,16 @@
         <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H26" t="s">
         <v>75</v>
@@ -3914,30 +3774,30 @@
         <v>76</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s">
+        <v>265</v>
+      </c>
+      <c r="M26" t="s">
+        <v>157</v>
+      </c>
+      <c r="N26" t="s">
+        <v>273</v>
+      </c>
+      <c r="O26" t="s">
+        <v>148</v>
+      </c>
+      <c r="P26" t="s">
         <v>266</v>
-      </c>
-      <c r="M26" t="s">
-        <v>158</v>
-      </c>
-      <c r="N26" t="s">
-        <v>274</v>
-      </c>
-      <c r="O26" t="s">
-        <v>149</v>
-      </c>
-      <c r="P26" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B27" t="s">
         <v>66</v>
@@ -3946,16 +3806,16 @@
         <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H27" t="s">
         <v>77</v>
@@ -3964,30 +3824,30 @@
         <v>135</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B28" t="s">
         <v>85</v>
@@ -3996,16 +3856,16 @@
         <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H28" t="s">
         <v>89</v>
@@ -4014,22 +3874,22 @@
         <v>90</v>
       </c>
       <c r="J28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P28" t="s">
         <v>91</v>
@@ -4037,7 +3897,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B29" t="s">
         <v>85</v>
@@ -4046,40 +3906,40 @@
         <v>121</v>
       </c>
       <c r="D29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G29" t="s">
+        <v>226</v>
+      </c>
+      <c r="H29" t="s">
+        <v>280</v>
+      </c>
+      <c r="I29" t="s">
+        <v>279</v>
+      </c>
+      <c r="J29" t="s">
+        <v>152</v>
+      </c>
+      <c r="K29" t="s">
         <v>227</v>
       </c>
-      <c r="H29" t="s">
-        <v>281</v>
-      </c>
-      <c r="I29" t="s">
-        <v>280</v>
-      </c>
-      <c r="J29" t="s">
-        <v>153</v>
-      </c>
-      <c r="K29" t="s">
-        <v>228</v>
-      </c>
       <c r="L29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P29" t="s">
         <v>91</v>
@@ -4087,7 +3947,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B30" t="s">
         <v>85</v>
@@ -4096,40 +3956,40 @@
         <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H30" t="s">
         <v>92</v>
       </c>
       <c r="I30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P30" t="s">
         <v>91</v>
@@ -4137,7 +3997,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B31" t="s">
         <v>85</v>
@@ -4146,40 +4006,40 @@
         <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G31" t="s">
+        <v>226</v>
+      </c>
+      <c r="H31" t="s">
+        <v>282</v>
+      </c>
+      <c r="I31" t="s">
+        <v>283</v>
+      </c>
+      <c r="J31" t="s">
+        <v>152</v>
+      </c>
+      <c r="K31" t="s">
         <v>227</v>
       </c>
-      <c r="H31" t="s">
-        <v>283</v>
-      </c>
-      <c r="I31" t="s">
-        <v>284</v>
-      </c>
-      <c r="J31" t="s">
-        <v>153</v>
-      </c>
-      <c r="K31" t="s">
-        <v>228</v>
-      </c>
       <c r="L31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P31" t="s">
         <v>91</v>
@@ -4187,7 +4047,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B32" t="s">
         <v>85</v>
@@ -4196,16 +4056,16 @@
         <v>124</v>
       </c>
       <c r="D32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H32" t="s">
         <v>125</v>
@@ -4214,22 +4074,22 @@
         <v>126</v>
       </c>
       <c r="J32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P32" t="s">
         <v>91</v>
@@ -4237,7 +4097,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
@@ -4246,40 +4106,40 @@
         <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H33" t="s">
         <v>107</v>
       </c>
       <c r="I33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P33" t="s">
         <v>84</v>
@@ -4287,7 +4147,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
@@ -4296,40 +4156,40 @@
         <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H34" t="s">
         <v>26</v>
       </c>
       <c r="I34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P34" t="s">
         <v>84</v>
@@ -4337,49 +4197,49 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H35" t="s">
         <v>108</v>
       </c>
       <c r="I35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P35" t="s">
         <v>84</v>
@@ -4387,57 +4247,57 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
       </c>
       <c r="C36" t="s">
+        <v>289</v>
+      </c>
+      <c r="D36" t="s">
+        <v>201</v>
+      </c>
+      <c r="E36" t="s">
+        <v>234</v>
+      </c>
+      <c r="F36" t="s">
+        <v>268</v>
+      </c>
+      <c r="G36" t="s">
+        <v>226</v>
+      </c>
+      <c r="H36" t="s">
         <v>290</v>
-      </c>
-      <c r="D36" t="s">
-        <v>202</v>
-      </c>
-      <c r="E36" t="s">
-        <v>235</v>
-      </c>
-      <c r="F36" t="s">
-        <v>269</v>
-      </c>
-      <c r="G36" t="s">
-        <v>227</v>
-      </c>
-      <c r="H36" t="s">
-        <v>291</v>
       </c>
       <c r="I36" t="s">
         <v>109</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K36" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B37" t="s">
         <v>82</v>
@@ -4446,40 +4306,40 @@
         <v>117</v>
       </c>
       <c r="D37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I37" t="s">
         <v>49</v>
       </c>
       <c r="J37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L37" t="s">
+        <v>156</v>
+      </c>
+      <c r="M37" t="s">
         <v>157</v>
       </c>
-      <c r="M37" t="s">
-        <v>158</v>
-      </c>
       <c r="N37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P37" t="s">
         <v>84</v>
@@ -4487,7 +4347,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B38" t="s">
         <v>82</v>
@@ -4496,16 +4356,16 @@
         <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H38" t="s">
         <v>51</v>
@@ -4514,22 +4374,22 @@
         <v>133</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K38" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P38" t="s">
         <v>84</v>
@@ -4537,7 +4397,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B39" t="s">
         <v>82</v>
@@ -4546,16 +4406,16 @@
         <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H39" t="s">
         <v>53</v>
@@ -4564,22 +4424,22 @@
         <v>54</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L39" t="s">
+        <v>156</v>
+      </c>
+      <c r="M39" t="s">
         <v>157</v>
       </c>
-      <c r="M39" t="s">
-        <v>158</v>
-      </c>
       <c r="N39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P39" t="s">
         <v>84</v>
@@ -4587,7 +4447,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B40" t="s">
         <v>82</v>
@@ -4596,40 +4456,40 @@
         <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H40" t="s">
         <v>118</v>
       </c>
       <c r="I40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P40" t="s">
         <v>84</v>
@@ -4637,7 +4497,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B41" t="s">
         <v>82</v>
@@ -4646,48 +4506,48 @@
         <v>139</v>
       </c>
       <c r="D41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H41" t="s">
         <v>140</v>
       </c>
       <c r="I41" t="s">
-        <v>142</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>153</v>
+        <v>141</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="K41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L41" t="s">
+        <v>156</v>
+      </c>
+      <c r="M41" t="s">
         <v>157</v>
       </c>
-      <c r="M41" t="s">
-        <v>158</v>
-      </c>
       <c r="N41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P41" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -4696,48 +4556,48 @@
         <v>106</v>
       </c>
       <c r="D42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H42" t="s">
         <v>6</v>
       </c>
       <c r="I42" t="s">
+        <v>294</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L42" t="s">
+        <v>165</v>
+      </c>
+      <c r="M42" t="s">
+        <v>157</v>
+      </c>
+      <c r="N42" t="s">
+        <v>273</v>
+      </c>
+      <c r="O42" t="s">
+        <v>148</v>
+      </c>
+      <c r="P42" t="s">
         <v>295</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="L42" t="s">
-        <v>166</v>
-      </c>
-      <c r="M42" t="s">
-        <v>158</v>
-      </c>
-      <c r="N42" t="s">
-        <v>274</v>
-      </c>
-      <c r="O42" t="s">
-        <v>149</v>
-      </c>
-      <c r="P42" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -4746,48 +4606,48 @@
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H43" t="s">
         <v>8</v>
       </c>
       <c r="I43" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L43" t="s">
+        <v>156</v>
+      </c>
+      <c r="M43" t="s">
         <v>157</v>
       </c>
-      <c r="M43" t="s">
-        <v>158</v>
-      </c>
       <c r="N43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -4796,40 +4656,40 @@
         <v>131</v>
       </c>
       <c r="D44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H44" t="s">
         <v>9</v>
       </c>
       <c r="I44" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M44" t="s">
+        <v>157</v>
+      </c>
+      <c r="N44" t="s">
         <v>158</v>
       </c>
-      <c r="N44" t="s">
-        <v>159</v>
-      </c>
       <c r="O44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P44" t="s">
         <v>10</v>
@@ -4837,25 +4697,25 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H45" t="s">
         <v>11</v>
@@ -4864,30 +4724,30 @@
         <v>12</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N45" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P45" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -4896,40 +4756,40 @@
         <v>105</v>
       </c>
       <c r="D46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H46" t="s">
         <v>13</v>
       </c>
       <c r="I46" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P46" t="s">
         <v>83</v>
@@ -4937,7 +4797,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -4946,48 +4806,48 @@
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H47" t="s">
         <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B48" t="s">
         <v>93</v>
@@ -4996,16 +4856,16 @@
         <v>94</v>
       </c>
       <c r="D48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G48" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H48" t="s">
         <v>128</v>
@@ -5014,22 +4874,22 @@
         <v>127</v>
       </c>
       <c r="J48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L48" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N48" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P48" t="s">
         <v>104</v>
@@ -5037,7 +4897,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B49" t="s">
         <v>93</v>
@@ -5046,16 +4906,16 @@
         <v>95</v>
       </c>
       <c r="D49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E49" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H49" t="s">
         <v>98</v>
@@ -5064,22 +4924,22 @@
         <v>99</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L49" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N49" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P49" t="s">
         <v>104</v>
@@ -5087,49 +4947,49 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B50" t="s">
         <v>93</v>
       </c>
       <c r="C50" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E50" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H50" t="s">
         <v>100</v>
       </c>
       <c r="I50" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P50" t="s">
         <v>104</v>
@@ -5137,7 +4997,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B51" t="s">
         <v>93</v>
@@ -5146,16 +5006,16 @@
         <v>96</v>
       </c>
       <c r="D51" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F51" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H51" t="s">
         <v>129</v>
@@ -5164,30 +5024,30 @@
         <v>101</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P51" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B52" t="s">
         <v>93</v>
@@ -5196,40 +5056,40 @@
         <v>132</v>
       </c>
       <c r="D52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H52" t="s">
         <v>102</v>
       </c>
       <c r="I52" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P52" t="s">
         <v>104</v>
@@ -5237,7 +5097,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B53" t="s">
         <v>93</v>
@@ -5246,16 +5106,16 @@
         <v>97</v>
       </c>
       <c r="D53" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G53" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H53" t="s">
         <v>130</v>
@@ -5264,22 +5124,22 @@
         <v>103</v>
       </c>
       <c r="J53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P53" t="s">
         <v>104</v>
@@ -5287,7 +5147,7 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B54" t="s">
         <v>35</v>
@@ -5296,16 +5156,16 @@
         <v>36</v>
       </c>
       <c r="D54" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G54" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H54" t="s">
         <v>115</v>
@@ -5314,22 +5174,22 @@
         <v>37</v>
       </c>
       <c r="J54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K54" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P54" t="s">
         <v>84</v>
@@ -5337,7 +5197,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B55" t="s">
         <v>35</v>
@@ -5346,16 +5206,16 @@
         <v>38</v>
       </c>
       <c r="D55" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G55" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H55" t="s">
         <v>39</v>
@@ -5364,22 +5224,22 @@
         <v>40</v>
       </c>
       <c r="J55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P55" t="s">
         <v>84</v>
@@ -5387,7 +5247,7 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B56" t="s">
         <v>35</v>
@@ -5396,16 +5256,16 @@
         <v>41</v>
       </c>
       <c r="D56" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E56" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G56" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H56" t="s">
         <v>116</v>
@@ -5414,22 +5274,22 @@
         <v>42</v>
       </c>
       <c r="J56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K56" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N56" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P56" t="s">
         <v>84</v>
@@ -5437,7 +5297,7 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B57" t="s">
         <v>35</v>
@@ -5446,40 +5306,40 @@
         <v>27</v>
       </c>
       <c r="D57" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E57" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G57" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H57" t="s">
         <v>43</v>
       </c>
       <c r="I57" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L57" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P57" t="s">
         <v>84</v>
@@ -5487,7 +5347,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B58" t="s">
         <v>35</v>
@@ -5496,16 +5356,16 @@
         <v>44</v>
       </c>
       <c r="D58" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F58" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G58" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H58" t="s">
         <v>45</v>
@@ -5514,22 +5374,22 @@
         <v>46</v>
       </c>
       <c r="J58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P58" t="s">
         <v>84</v>
@@ -5537,7 +5397,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B59" t="s">
         <v>35</v>
@@ -5546,40 +5406,40 @@
         <v>47</v>
       </c>
       <c r="D59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E59" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G59" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H59" t="s">
         <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P59" t="s">
         <v>84</v>
@@ -5587,1252 +5447,2599 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B60" t="s">
         <v>66</v>
       </c>
       <c r="C60" t="s">
+        <v>275</v>
+      </c>
+      <c r="D60" t="s">
         <v>276</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
+        <v>230</v>
+      </c>
+      <c r="F60" t="s">
+        <v>268</v>
+      </c>
+      <c r="G60" t="s">
+        <v>226</v>
+      </c>
+      <c r="H60" t="s">
         <v>277</v>
       </c>
-      <c r="E60" t="s">
-        <v>231</v>
-      </c>
-      <c r="F60" t="s">
-        <v>269</v>
-      </c>
-      <c r="G60" t="s">
-        <v>227</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>278</v>
       </c>
-      <c r="I60" t="s">
-        <v>279</v>
-      </c>
       <c r="J60" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N60" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O60" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P60" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
       </c>
       <c r="C61" t="s">
+        <v>497</v>
+      </c>
+      <c r="D61" t="s">
+        <v>317</v>
+      </c>
+      <c r="E61" t="s">
+        <v>230</v>
+      </c>
+      <c r="F61" t="s">
+        <v>468</v>
+      </c>
+      <c r="G61" t="s">
+        <v>226</v>
+      </c>
+      <c r="H61" t="s">
         <v>318</v>
       </c>
-      <c r="D61" t="s">
-        <v>368</v>
-      </c>
-      <c r="H61" t="s">
-        <v>419</v>
-      </c>
       <c r="I61" t="s">
-        <v>470</v>
+        <v>319</v>
+      </c>
+      <c r="J61" t="s">
+        <v>246</v>
+      </c>
+      <c r="K61" t="s">
+        <v>246</v>
+      </c>
+      <c r="L61" t="s">
+        <v>145</v>
+      </c>
+      <c r="M61" t="s">
+        <v>157</v>
+      </c>
+      <c r="N61" t="s">
+        <v>273</v>
+      </c>
+      <c r="O61" t="s">
+        <v>148</v>
       </c>
       <c r="P61" t="s">
-        <v>520</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>319</v>
+        <v>498</v>
       </c>
       <c r="D62" t="s">
-        <v>369</v>
+        <v>320</v>
+      </c>
+      <c r="E62" t="s">
+        <v>230</v>
+      </c>
+      <c r="F62" t="s">
+        <v>468</v>
+      </c>
+      <c r="G62" t="s">
+        <v>226</v>
       </c>
       <c r="H62" t="s">
-        <v>420</v>
+        <v>321</v>
       </c>
       <c r="I62" t="s">
-        <v>471</v>
+        <v>322</v>
+      </c>
+      <c r="J62" t="s">
+        <v>246</v>
+      </c>
+      <c r="K62" t="s">
+        <v>246</v>
+      </c>
+      <c r="L62" t="s">
+        <v>156</v>
+      </c>
+      <c r="M62" t="s">
+        <v>157</v>
+      </c>
+      <c r="N62" t="s">
+        <v>273</v>
+      </c>
+      <c r="O62" t="s">
+        <v>148</v>
       </c>
       <c r="P62" t="s">
-        <v>521</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>320</v>
+        <v>499</v>
       </c>
       <c r="D63" t="s">
-        <v>370</v>
+        <v>324</v>
+      </c>
+      <c r="E63" t="s">
+        <v>230</v>
+      </c>
+      <c r="F63" t="s">
+        <v>468</v>
+      </c>
+      <c r="G63" t="s">
+        <v>226</v>
       </c>
       <c r="H63" t="s">
-        <v>421</v>
+        <v>325</v>
       </c>
       <c r="I63" t="s">
-        <v>472</v>
+        <v>326</v>
+      </c>
+      <c r="J63" t="s">
+        <v>246</v>
+      </c>
+      <c r="K63" t="s">
+        <v>246</v>
+      </c>
+      <c r="L63" t="s">
+        <v>165</v>
+      </c>
+      <c r="M63" t="s">
+        <v>157</v>
+      </c>
+      <c r="N63" t="s">
+        <v>162</v>
+      </c>
+      <c r="O63" t="s">
+        <v>148</v>
       </c>
       <c r="P63" t="s">
-        <v>522</v>
+        <v>295</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>321</v>
+        <v>500</v>
       </c>
       <c r="D64" t="s">
-        <v>371</v>
+        <v>327</v>
+      </c>
+      <c r="E64" t="s">
+        <v>230</v>
+      </c>
+      <c r="F64" t="s">
+        <v>468</v>
+      </c>
+      <c r="G64" t="s">
+        <v>226</v>
       </c>
       <c r="H64" t="s">
-        <v>422</v>
+        <v>328</v>
       </c>
       <c r="I64" t="s">
-        <v>473</v>
+        <v>329</v>
+      </c>
+      <c r="J64" t="s">
+        <v>246</v>
+      </c>
+      <c r="K64" t="s">
+        <v>246</v>
+      </c>
+      <c r="L64" t="s">
+        <v>165</v>
+      </c>
+      <c r="M64" t="s">
+        <v>157</v>
+      </c>
+      <c r="N64" t="s">
+        <v>273</v>
       </c>
       <c r="P64" t="s">
-        <v>523</v>
+        <v>295</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>322</v>
+        <v>501</v>
       </c>
       <c r="D65" t="s">
-        <v>372</v>
+        <v>330</v>
+      </c>
+      <c r="E65" t="s">
+        <v>234</v>
+      </c>
+      <c r="F65" t="s">
+        <v>225</v>
+      </c>
+      <c r="G65" t="s">
+        <v>226</v>
       </c>
       <c r="H65" t="s">
-        <v>423</v>
+        <v>331</v>
       </c>
       <c r="I65" t="s">
-        <v>474</v>
+        <v>332</v>
+      </c>
+      <c r="J65" t="s">
+        <v>152</v>
+      </c>
+      <c r="K65" t="s">
+        <v>227</v>
+      </c>
+      <c r="L65" t="s">
+        <v>161</v>
+      </c>
+      <c r="M65" t="s">
+        <v>157</v>
+      </c>
+      <c r="N65" t="s">
+        <v>162</v>
+      </c>
+      <c r="O65" t="s">
+        <v>148</v>
       </c>
       <c r="P65" t="s">
-        <v>524</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>323</v>
+        <v>502</v>
       </c>
       <c r="D66" t="s">
-        <v>373</v>
+        <v>333</v>
+      </c>
+      <c r="E66" t="s">
+        <v>234</v>
+      </c>
+      <c r="F66" t="s">
+        <v>225</v>
+      </c>
+      <c r="G66" t="s">
+        <v>226</v>
       </c>
       <c r="H66" t="s">
-        <v>424</v>
+        <v>334</v>
       </c>
       <c r="I66" t="s">
-        <v>475</v>
+        <v>335</v>
+      </c>
+      <c r="J66" t="s">
+        <v>152</v>
+      </c>
+      <c r="K66" t="s">
+        <v>227</v>
+      </c>
+      <c r="L66" t="s">
+        <v>165</v>
+      </c>
+      <c r="M66" t="s">
+        <v>157</v>
+      </c>
+      <c r="N66" t="s">
+        <v>162</v>
+      </c>
+      <c r="O66" t="s">
+        <v>148</v>
       </c>
       <c r="P66" t="s">
-        <v>525</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>324</v>
+        <v>503</v>
       </c>
       <c r="D67" t="s">
-        <v>374</v>
+        <v>336</v>
+      </c>
+      <c r="E67" t="s">
+        <v>234</v>
+      </c>
+      <c r="F67" t="s">
+        <v>225</v>
+      </c>
+      <c r="G67" t="s">
+        <v>226</v>
       </c>
       <c r="H67" t="s">
-        <v>425</v>
+        <v>337</v>
       </c>
       <c r="I67" t="s">
-        <v>476</v>
+        <v>338</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L67" t="s">
+        <v>145</v>
+      </c>
+      <c r="M67" t="s">
+        <v>157</v>
+      </c>
+      <c r="N67" t="s">
+        <v>273</v>
+      </c>
+      <c r="O67" t="s">
+        <v>148</v>
       </c>
       <c r="P67" t="s">
-        <v>526</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>325</v>
+        <v>504</v>
       </c>
       <c r="D68" t="s">
-        <v>375</v>
+        <v>339</v>
+      </c>
+      <c r="E68" t="s">
+        <v>234</v>
+      </c>
+      <c r="F68" t="s">
+        <v>225</v>
+      </c>
+      <c r="G68" t="s">
+        <v>226</v>
       </c>
       <c r="H68" t="s">
-        <v>426</v>
+        <v>340</v>
       </c>
       <c r="I68" t="s">
-        <v>477</v>
+        <v>341</v>
+      </c>
+      <c r="J68" t="s">
+        <v>152</v>
+      </c>
+      <c r="K68" t="s">
+        <v>227</v>
+      </c>
+      <c r="L68" t="s">
+        <v>165</v>
+      </c>
+      <c r="M68" t="s">
+        <v>157</v>
+      </c>
+      <c r="N68" t="s">
+        <v>162</v>
+      </c>
+      <c r="O68" t="s">
+        <v>148</v>
       </c>
       <c r="P68" t="s">
-        <v>527</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>326</v>
+        <v>505</v>
       </c>
       <c r="D69" t="s">
-        <v>376</v>
+        <v>342</v>
+      </c>
+      <c r="E69" t="s">
+        <v>230</v>
+      </c>
+      <c r="F69" t="s">
+        <v>225</v>
+      </c>
+      <c r="G69" t="s">
+        <v>226</v>
       </c>
       <c r="H69" t="s">
-        <v>427</v>
+        <v>343</v>
       </c>
       <c r="I69" t="s">
-        <v>478</v>
+        <v>344</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L69" t="s">
+        <v>165</v>
+      </c>
+      <c r="M69" t="s">
+        <v>157</v>
+      </c>
+      <c r="N69" t="s">
+        <v>273</v>
+      </c>
+      <c r="O69" t="s">
+        <v>148</v>
       </c>
       <c r="P69" t="s">
-        <v>528</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C70" t="s">
-        <v>327</v>
+        <v>506</v>
       </c>
       <c r="D70" t="s">
-        <v>377</v>
+        <v>345</v>
+      </c>
+      <c r="E70" t="s">
+        <v>234</v>
+      </c>
+      <c r="F70" t="s">
+        <v>268</v>
+      </c>
+      <c r="G70" t="s">
+        <v>226</v>
       </c>
       <c r="H70" t="s">
-        <v>428</v>
+        <v>346</v>
       </c>
       <c r="I70" t="s">
-        <v>479</v>
+        <v>347</v>
+      </c>
+      <c r="J70" t="s">
+        <v>152</v>
+      </c>
+      <c r="K70" t="s">
+        <v>227</v>
+      </c>
+      <c r="L70" t="s">
+        <v>165</v>
+      </c>
+      <c r="M70" t="s">
+        <v>157</v>
+      </c>
+      <c r="N70" t="s">
+        <v>162</v>
+      </c>
+      <c r="O70" t="s">
+        <v>148</v>
       </c>
       <c r="P70" t="s">
-        <v>529</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B71" t="s">
         <v>20</v>
       </c>
       <c r="C71" t="s">
-        <v>328</v>
+        <v>507</v>
       </c>
       <c r="D71" t="s">
-        <v>378</v>
+        <v>348</v>
+      </c>
+      <c r="E71" t="s">
+        <v>234</v>
+      </c>
+      <c r="F71" t="s">
+        <v>268</v>
+      </c>
+      <c r="G71" t="s">
+        <v>226</v>
       </c>
       <c r="H71" t="s">
-        <v>429</v>
+        <v>349</v>
       </c>
       <c r="I71" t="s">
-        <v>480</v>
+        <v>350</v>
+      </c>
+      <c r="J71" t="s">
+        <v>152</v>
+      </c>
+      <c r="K71" t="s">
+        <v>227</v>
+      </c>
+      <c r="L71" t="s">
+        <v>156</v>
+      </c>
+      <c r="M71" t="s">
+        <v>157</v>
+      </c>
+      <c r="N71" t="s">
+        <v>162</v>
+      </c>
+      <c r="O71" t="s">
+        <v>148</v>
       </c>
       <c r="P71" t="s">
-        <v>530</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
       </c>
       <c r="C72" t="s">
-        <v>329</v>
+        <v>508</v>
       </c>
       <c r="D72" t="s">
-        <v>379</v>
+        <v>351</v>
+      </c>
+      <c r="E72" t="s">
+        <v>234</v>
+      </c>
+      <c r="F72" t="s">
+        <v>268</v>
+      </c>
+      <c r="G72" t="s">
+        <v>226</v>
       </c>
       <c r="H72" t="s">
-        <v>430</v>
+        <v>352</v>
       </c>
       <c r="I72" t="s">
-        <v>481</v>
+        <v>353</v>
+      </c>
+      <c r="J72" t="s">
+        <v>152</v>
+      </c>
+      <c r="K72" t="s">
+        <v>227</v>
+      </c>
+      <c r="L72" t="s">
+        <v>145</v>
+      </c>
+      <c r="M72" t="s">
+        <v>157</v>
+      </c>
+      <c r="N72" t="s">
+        <v>273</v>
+      </c>
+      <c r="O72" t="s">
+        <v>148</v>
       </c>
       <c r="P72" t="s">
-        <v>531</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B73" t="s">
         <v>20</v>
       </c>
       <c r="C73" t="s">
-        <v>330</v>
+        <v>509</v>
       </c>
       <c r="D73" t="s">
-        <v>380</v>
+        <v>354</v>
+      </c>
+      <c r="E73" t="s">
+        <v>234</v>
+      </c>
+      <c r="F73" t="s">
+        <v>268</v>
+      </c>
+      <c r="G73" t="s">
+        <v>226</v>
       </c>
       <c r="H73" t="s">
-        <v>431</v>
+        <v>355</v>
       </c>
       <c r="I73" t="s">
-        <v>482</v>
+        <v>356</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L73" t="s">
+        <v>145</v>
+      </c>
+      <c r="M73" t="s">
+        <v>157</v>
+      </c>
+      <c r="N73" t="s">
+        <v>273</v>
+      </c>
+      <c r="O73" t="s">
+        <v>148</v>
       </c>
       <c r="P73" t="s">
-        <v>532</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B74" t="s">
         <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>331</v>
+        <v>510</v>
       </c>
       <c r="D74" t="s">
-        <v>381</v>
+        <v>357</v>
+      </c>
+      <c r="E74" t="s">
+        <v>234</v>
+      </c>
+      <c r="F74" t="s">
+        <v>268</v>
+      </c>
+      <c r="G74" t="s">
+        <v>226</v>
       </c>
       <c r="H74" t="s">
-        <v>432</v>
+        <v>358</v>
       </c>
       <c r="I74" t="s">
-        <v>483</v>
+        <v>359</v>
+      </c>
+      <c r="J74" t="s">
+        <v>152</v>
+      </c>
+      <c r="K74" t="s">
+        <v>227</v>
+      </c>
+      <c r="L74" t="s">
+        <v>165</v>
+      </c>
+      <c r="M74" t="s">
+        <v>157</v>
+      </c>
+      <c r="N74" t="s">
+        <v>273</v>
+      </c>
+      <c r="O74" t="s">
+        <v>148</v>
       </c>
       <c r="P74" t="s">
-        <v>533</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C75" t="s">
-        <v>332</v>
+        <v>511</v>
       </c>
       <c r="D75" t="s">
-        <v>382</v>
+        <v>360</v>
+      </c>
+      <c r="E75" t="s">
+        <v>230</v>
+      </c>
+      <c r="F75" t="s">
+        <v>244</v>
+      </c>
+      <c r="G75" t="s">
+        <v>226</v>
       </c>
       <c r="H75" t="s">
-        <v>433</v>
+        <v>361</v>
       </c>
       <c r="I75" t="s">
-        <v>484</v>
+        <v>362</v>
+      </c>
+      <c r="J75" t="s">
+        <v>152</v>
+      </c>
+      <c r="K75" t="s">
+        <v>257</v>
+      </c>
+      <c r="L75" t="s">
+        <v>154</v>
+      </c>
+      <c r="M75" t="s">
+        <v>149</v>
+      </c>
+      <c r="N75" t="s">
+        <v>153</v>
+      </c>
+      <c r="O75" t="s">
+        <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>534</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B76" t="s">
         <v>29</v>
       </c>
       <c r="C76" t="s">
-        <v>333</v>
+        <v>512</v>
       </c>
       <c r="D76" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="E76" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F76" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H76" t="s">
-        <v>434</v>
+        <v>364</v>
       </c>
       <c r="I76" t="s">
-        <v>485</v>
+        <v>365</v>
       </c>
       <c r="J76" t="s">
+        <v>152</v>
+      </c>
+      <c r="K76" t="s">
+        <v>257</v>
+      </c>
+      <c r="L76" t="s">
+        <v>469</v>
+      </c>
+      <c r="M76" t="s">
+        <v>149</v>
+      </c>
+      <c r="N76" t="s">
         <v>153</v>
       </c>
-      <c r="K76" t="s">
-        <v>258</v>
-      </c>
-      <c r="L76" t="s">
-        <v>155</v>
-      </c>
-      <c r="M76" t="s">
-        <v>150</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>247</v>
-      </c>
       <c r="O76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P76" t="s">
-        <v>535</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B77" t="s">
         <v>29</v>
       </c>
       <c r="C77" t="s">
-        <v>334</v>
+        <v>513</v>
       </c>
       <c r="D77" t="s">
-        <v>384</v>
+        <v>366</v>
+      </c>
+      <c r="E77" t="s">
+        <v>230</v>
+      </c>
+      <c r="F77" t="s">
+        <v>244</v>
+      </c>
+      <c r="G77" t="s">
+        <v>226</v>
       </c>
       <c r="H77" t="s">
-        <v>435</v>
+        <v>367</v>
       </c>
       <c r="I77" t="s">
-        <v>486</v>
+        <v>368</v>
+      </c>
+      <c r="J77" t="s">
+        <v>152</v>
+      </c>
+      <c r="K77" t="s">
+        <v>257</v>
+      </c>
+      <c r="L77" t="s">
+        <v>165</v>
+      </c>
+      <c r="M77" t="s">
+        <v>149</v>
+      </c>
+      <c r="N77" t="s">
+        <v>153</v>
+      </c>
+      <c r="O77" t="s">
+        <v>148</v>
       </c>
       <c r="P77" t="s">
-        <v>536</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B78" t="s">
         <v>29</v>
       </c>
       <c r="C78" t="s">
-        <v>335</v>
+        <v>514</v>
       </c>
       <c r="D78" t="s">
-        <v>385</v>
+        <v>369</v>
+      </c>
+      <c r="E78" t="s">
+        <v>234</v>
+      </c>
+      <c r="F78" t="s">
+        <v>244</v>
+      </c>
+      <c r="G78" t="s">
+        <v>226</v>
       </c>
       <c r="H78" t="s">
-        <v>436</v>
+        <v>370</v>
       </c>
       <c r="I78" t="s">
-        <v>487</v>
+        <v>371</v>
+      </c>
+      <c r="J78" t="s">
+        <v>246</v>
+      </c>
+      <c r="K78" t="s">
+        <v>246</v>
+      </c>
+      <c r="L78" t="s">
+        <v>145</v>
+      </c>
+      <c r="M78" t="s">
+        <v>149</v>
+      </c>
+      <c r="N78" t="s">
+        <v>153</v>
+      </c>
+      <c r="O78" t="s">
+        <v>148</v>
       </c>
       <c r="P78" t="s">
-        <v>537</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B79" t="s">
         <v>29</v>
       </c>
       <c r="C79" t="s">
-        <v>336</v>
+        <v>515</v>
       </c>
       <c r="D79" t="s">
-        <v>386</v>
+        <v>372</v>
+      </c>
+      <c r="E79" t="s">
+        <v>230</v>
+      </c>
+      <c r="F79" t="s">
+        <v>244</v>
+      </c>
+      <c r="G79" t="s">
+        <v>226</v>
       </c>
       <c r="H79" t="s">
-        <v>437</v>
+        <v>373</v>
       </c>
       <c r="I79" t="s">
-        <v>488</v>
+        <v>374</v>
+      </c>
+      <c r="J79" t="s">
+        <v>152</v>
+      </c>
+      <c r="K79" t="s">
+        <v>470</v>
+      </c>
+      <c r="L79" t="s">
+        <v>165</v>
+      </c>
+      <c r="M79" t="s">
+        <v>149</v>
+      </c>
+      <c r="N79" t="s">
+        <v>153</v>
+      </c>
+      <c r="O79" t="s">
+        <v>148</v>
       </c>
       <c r="P79" t="s">
-        <v>538</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B80" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C80" t="s">
-        <v>337</v>
+        <v>516</v>
       </c>
       <c r="D80" t="s">
-        <v>387</v>
+        <v>375</v>
+      </c>
+      <c r="E80" t="s">
+        <v>230</v>
+      </c>
+      <c r="F80" t="s">
+        <v>244</v>
+      </c>
+      <c r="G80" t="s">
+        <v>310</v>
       </c>
       <c r="H80" t="s">
-        <v>438</v>
+        <v>376</v>
       </c>
       <c r="I80" t="s">
-        <v>489</v>
+        <v>377</v>
+      </c>
+      <c r="J80" t="s">
+        <v>152</v>
+      </c>
+      <c r="K80" t="s">
+        <v>227</v>
+      </c>
+      <c r="L80" t="s">
+        <v>156</v>
+      </c>
+      <c r="M80" t="s">
+        <v>149</v>
+      </c>
+      <c r="N80" t="s">
+        <v>155</v>
+      </c>
+      <c r="O80" t="s">
+        <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>539</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B81" t="s">
         <v>35</v>
       </c>
       <c r="C81" t="s">
-        <v>338</v>
+        <v>517</v>
       </c>
       <c r="D81" t="s">
-        <v>388</v>
+        <v>378</v>
+      </c>
+      <c r="E81" t="s">
+        <v>230</v>
+      </c>
+      <c r="F81" t="s">
+        <v>244</v>
+      </c>
+      <c r="G81" t="s">
+        <v>310</v>
       </c>
       <c r="H81" t="s">
-        <v>439</v>
+        <v>379</v>
       </c>
       <c r="I81" t="s">
-        <v>490</v>
+        <v>380</v>
+      </c>
+      <c r="J81" t="s">
+        <v>152</v>
+      </c>
+      <c r="K81" t="s">
+        <v>227</v>
+      </c>
+      <c r="L81" t="s">
+        <v>156</v>
+      </c>
+      <c r="M81" t="s">
+        <v>149</v>
+      </c>
+      <c r="N81" t="s">
+        <v>155</v>
+      </c>
+      <c r="O81" t="s">
+        <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>540</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B82" t="s">
         <v>35</v>
       </c>
       <c r="C82" t="s">
-        <v>339</v>
+        <v>518</v>
       </c>
       <c r="D82" t="s">
-        <v>389</v>
+        <v>381</v>
+      </c>
+      <c r="E82" t="s">
+        <v>230</v>
+      </c>
+      <c r="F82" t="s">
+        <v>244</v>
+      </c>
+      <c r="G82" t="s">
+        <v>310</v>
       </c>
       <c r="H82" t="s">
-        <v>440</v>
+        <v>382</v>
       </c>
       <c r="I82" t="s">
-        <v>491</v>
+        <v>383</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L82" t="s">
+        <v>165</v>
+      </c>
+      <c r="M82" t="s">
+        <v>149</v>
+      </c>
+      <c r="N82" t="s">
+        <v>155</v>
+      </c>
+      <c r="O82" t="s">
+        <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>536</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B83" t="s">
         <v>35</v>
       </c>
       <c r="C83" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
       <c r="D83" t="s">
-        <v>390</v>
+        <v>385</v>
+      </c>
+      <c r="E83" t="s">
+        <v>230</v>
+      </c>
+      <c r="F83" t="s">
+        <v>244</v>
+      </c>
+      <c r="G83" t="s">
+        <v>310</v>
       </c>
       <c r="H83" t="s">
-        <v>441</v>
+        <v>386</v>
       </c>
       <c r="I83" t="s">
-        <v>492</v>
+        <v>387</v>
+      </c>
+      <c r="J83" t="s">
+        <v>152</v>
+      </c>
+      <c r="K83" t="s">
+        <v>227</v>
+      </c>
+      <c r="L83" t="s">
+        <v>156</v>
+      </c>
+      <c r="M83" t="s">
+        <v>149</v>
+      </c>
+      <c r="N83" t="s">
+        <v>155</v>
+      </c>
+      <c r="O83" t="s">
+        <v>148</v>
       </c>
       <c r="P83" t="s">
-        <v>522</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B84" t="s">
         <v>35</v>
       </c>
       <c r="C84" t="s">
-        <v>341</v>
+        <v>519</v>
       </c>
       <c r="D84" t="s">
-        <v>391</v>
+        <v>388</v>
+      </c>
+      <c r="E84" t="s">
+        <v>234</v>
+      </c>
+      <c r="F84" t="s">
+        <v>244</v>
+      </c>
+      <c r="G84" t="s">
+        <v>310</v>
       </c>
       <c r="H84" t="s">
-        <v>442</v>
+        <v>389</v>
       </c>
       <c r="I84" t="s">
-        <v>493</v>
+        <v>390</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L84" t="s">
+        <v>165</v>
+      </c>
+      <c r="M84" t="s">
+        <v>149</v>
+      </c>
+      <c r="N84" t="s">
+        <v>155</v>
+      </c>
+      <c r="O84" t="s">
+        <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>541</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="C85" t="s">
-        <v>342</v>
+        <v>491</v>
       </c>
       <c r="D85" t="s">
+        <v>391</v>
+      </c>
+      <c r="E85" t="s">
+        <v>230</v>
+      </c>
+      <c r="F85" t="s">
+        <v>225</v>
+      </c>
+      <c r="G85" t="s">
+        <v>226</v>
+      </c>
+      <c r="H85" t="s">
         <v>392</v>
       </c>
-      <c r="H85" t="s">
-        <v>443</v>
-      </c>
       <c r="I85" t="s">
-        <v>494</v>
+        <v>393</v>
+      </c>
+      <c r="J85" t="s">
+        <v>152</v>
+      </c>
+      <c r="K85" t="s">
+        <v>227</v>
+      </c>
+      <c r="L85" t="s">
+        <v>156</v>
+      </c>
+      <c r="M85" t="s">
+        <v>157</v>
+      </c>
+      <c r="N85" t="s">
+        <v>159</v>
+      </c>
+      <c r="O85" t="s">
+        <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>539</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B86" t="s">
         <v>82</v>
       </c>
       <c r="C86" t="s">
-        <v>343</v>
+        <v>492</v>
       </c>
       <c r="D86" t="s">
-        <v>393</v>
+        <v>394</v>
+      </c>
+      <c r="E86" t="s">
+        <v>230</v>
+      </c>
+      <c r="F86" t="s">
+        <v>225</v>
+      </c>
+      <c r="G86" t="s">
+        <v>226</v>
       </c>
       <c r="H86" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="I86" t="s">
-        <v>495</v>
+        <v>396</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L86" t="s">
+        <v>165</v>
+      </c>
+      <c r="M86" t="s">
+        <v>157</v>
+      </c>
+      <c r="N86" t="s">
+        <v>273</v>
+      </c>
+      <c r="O86" t="s">
+        <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>542</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B87" t="s">
         <v>82</v>
       </c>
       <c r="C87" t="s">
-        <v>344</v>
+        <v>493</v>
       </c>
       <c r="D87" t="s">
-        <v>394</v>
+        <v>397</v>
+      </c>
+      <c r="E87" t="s">
+        <v>230</v>
+      </c>
+      <c r="F87" t="s">
+        <v>225</v>
+      </c>
+      <c r="G87" t="s">
+        <v>226</v>
       </c>
       <c r="H87" t="s">
-        <v>445</v>
+        <v>398</v>
       </c>
       <c r="I87" t="s">
-        <v>496</v>
+        <v>399</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L87" t="s">
+        <v>156</v>
+      </c>
+      <c r="M87" t="s">
+        <v>157</v>
+      </c>
+      <c r="N87" t="s">
+        <v>273</v>
+      </c>
+      <c r="O87" t="s">
+        <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>543</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B88" t="s">
         <v>82</v>
       </c>
       <c r="C88" t="s">
-        <v>345</v>
+        <v>494</v>
       </c>
       <c r="D88" t="s">
-        <v>395</v>
+        <v>400</v>
+      </c>
+      <c r="E88" t="s">
+        <v>230</v>
+      </c>
+      <c r="F88" t="s">
+        <v>225</v>
+      </c>
+      <c r="G88" t="s">
+        <v>226</v>
       </c>
       <c r="H88" t="s">
-        <v>446</v>
+        <v>401</v>
       </c>
       <c r="I88" t="s">
-        <v>497</v>
+        <v>496</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L88" t="s">
+        <v>165</v>
+      </c>
+      <c r="M88" t="s">
+        <v>157</v>
+      </c>
+      <c r="N88" t="s">
+        <v>273</v>
+      </c>
+      <c r="O88" t="s">
+        <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>544</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B89" t="s">
         <v>82</v>
       </c>
       <c r="C89" t="s">
-        <v>346</v>
+        <v>495</v>
       </c>
       <c r="D89" t="s">
-        <v>396</v>
+        <v>402</v>
+      </c>
+      <c r="E89" t="s">
+        <v>230</v>
+      </c>
+      <c r="F89" t="s">
+        <v>225</v>
+      </c>
+      <c r="G89" t="s">
+        <v>226</v>
       </c>
       <c r="H89" t="s">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="I89" t="s">
-        <v>498</v>
+        <v>404</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K89" t="s">
+        <v>227</v>
+      </c>
+      <c r="L89" t="s">
+        <v>156</v>
+      </c>
+      <c r="M89" t="s">
+        <v>157</v>
+      </c>
+      <c r="N89" t="s">
+        <v>159</v>
+      </c>
+      <c r="O89" t="s">
+        <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>545</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B90" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C90" t="s">
-        <v>347</v>
+        <v>474</v>
       </c>
       <c r="D90" t="s">
-        <v>397</v>
+        <v>405</v>
+      </c>
+      <c r="E90" t="s">
+        <v>230</v>
+      </c>
+      <c r="F90" t="s">
+        <v>268</v>
+      </c>
+      <c r="G90" t="s">
+        <v>226</v>
       </c>
       <c r="H90" t="s">
-        <v>448</v>
+        <v>406</v>
       </c>
       <c r="I90" t="s">
-        <v>499</v>
+        <v>407</v>
+      </c>
+      <c r="J90" t="s">
+        <v>152</v>
+      </c>
+      <c r="K90" t="s">
+        <v>227</v>
+      </c>
+      <c r="L90" t="s">
+        <v>265</v>
+      </c>
+      <c r="M90" t="s">
+        <v>157</v>
+      </c>
+      <c r="N90" t="s">
+        <v>162</v>
+      </c>
+      <c r="O90" t="s">
+        <v>148</v>
       </c>
       <c r="P90" t="s">
-        <v>546</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B91" t="s">
         <v>56</v>
       </c>
       <c r="C91" t="s">
-        <v>348</v>
+        <v>408</v>
       </c>
       <c r="D91" t="s">
-        <v>398</v>
+        <v>409</v>
+      </c>
+      <c r="E91" t="s">
+        <v>230</v>
+      </c>
+      <c r="F91" t="s">
+        <v>268</v>
+      </c>
+      <c r="G91" t="s">
+        <v>226</v>
       </c>
       <c r="H91" t="s">
-        <v>449</v>
+        <v>410</v>
       </c>
       <c r="I91" t="s">
-        <v>500</v>
+        <v>411</v>
+      </c>
+      <c r="J91" t="s">
+        <v>152</v>
+      </c>
+      <c r="K91" t="s">
+        <v>227</v>
+      </c>
+      <c r="L91" t="s">
+        <v>165</v>
+      </c>
+      <c r="M91" t="s">
+        <v>157</v>
+      </c>
+      <c r="N91" t="s">
+        <v>162</v>
+      </c>
+      <c r="O91" t="s">
+        <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>547</v>
+        <v>266</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B92" t="s">
         <v>56</v>
       </c>
       <c r="C92" t="s">
-        <v>349</v>
+        <v>473</v>
       </c>
       <c r="D92" t="s">
-        <v>399</v>
+        <v>412</v>
+      </c>
+      <c r="E92" t="s">
+        <v>230</v>
+      </c>
+      <c r="F92" t="s">
+        <v>268</v>
+      </c>
+      <c r="G92" t="s">
+        <v>226</v>
       </c>
       <c r="H92" t="s">
-        <v>450</v>
+        <v>413</v>
       </c>
       <c r="I92" t="s">
-        <v>501</v>
+        <v>414</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L92" t="s">
+        <v>165</v>
+      </c>
+      <c r="M92" t="s">
+        <v>157</v>
+      </c>
+      <c r="N92" t="s">
+        <v>273</v>
+      </c>
+      <c r="O92" t="s">
+        <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>548</v>
+        <v>266</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B93" t="s">
         <v>56</v>
       </c>
       <c r="C93" t="s">
-        <v>350</v>
+        <v>472</v>
       </c>
       <c r="D93" t="s">
-        <v>400</v>
+        <v>415</v>
+      </c>
+      <c r="E93" t="s">
+        <v>230</v>
+      </c>
+      <c r="F93" t="s">
+        <v>268</v>
+      </c>
+      <c r="G93" t="s">
+        <v>226</v>
       </c>
       <c r="H93" t="s">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="I93" t="s">
-        <v>502</v>
+        <v>417</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L93" t="s">
+        <v>269</v>
+      </c>
+      <c r="M93" t="s">
+        <v>157</v>
+      </c>
+      <c r="N93" t="s">
+        <v>273</v>
+      </c>
+      <c r="O93" t="s">
+        <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>549</v>
+        <v>266</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B94" t="s">
         <v>56</v>
       </c>
       <c r="C94" t="s">
-        <v>351</v>
+        <v>471</v>
       </c>
       <c r="D94" t="s">
-        <v>401</v>
+        <v>418</v>
+      </c>
+      <c r="E94" t="s">
+        <v>230</v>
+      </c>
+      <c r="F94" t="s">
+        <v>268</v>
+      </c>
+      <c r="G94" t="s">
+        <v>226</v>
       </c>
       <c r="H94" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="I94" t="s">
-        <v>503</v>
+        <v>420</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L94" t="s">
+        <v>145</v>
+      </c>
+      <c r="M94" t="s">
+        <v>157</v>
+      </c>
+      <c r="N94" t="s">
+        <v>273</v>
+      </c>
+      <c r="O94" t="s">
+        <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>550</v>
+        <v>266</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B95" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C95" t="s">
-        <v>352</v>
+        <v>475</v>
       </c>
       <c r="D95" t="s">
-        <v>402</v>
+        <v>421</v>
+      </c>
+      <c r="E95" t="s">
+        <v>230</v>
+      </c>
+      <c r="F95" t="s">
+        <v>268</v>
+      </c>
+      <c r="G95" t="s">
+        <v>226</v>
       </c>
       <c r="H95" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
       <c r="I95" t="s">
-        <v>504</v>
+        <v>423</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L95" t="s">
+        <v>265</v>
+      </c>
+      <c r="M95" t="s">
+        <v>157</v>
+      </c>
+      <c r="N95" t="s">
+        <v>273</v>
+      </c>
+      <c r="O95" t="s">
+        <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>551</v>
+        <v>266</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B96" t="s">
         <v>66</v>
       </c>
       <c r="C96" t="s">
-        <v>353</v>
+        <v>476</v>
       </c>
       <c r="D96" t="s">
-        <v>403</v>
+        <v>424</v>
+      </c>
+      <c r="E96" t="s">
+        <v>230</v>
+      </c>
+      <c r="F96" t="s">
+        <v>268</v>
+      </c>
+      <c r="G96" t="s">
+        <v>226</v>
       </c>
       <c r="H96" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="I96" t="s">
-        <v>505</v>
+        <v>426</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L96" t="s">
+        <v>165</v>
+      </c>
+      <c r="M96" t="s">
+        <v>157</v>
+      </c>
+      <c r="N96" t="s">
+        <v>273</v>
+      </c>
+      <c r="O96" t="s">
+        <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>552</v>
+        <v>266</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B97" t="s">
         <v>66</v>
       </c>
       <c r="C97" t="s">
-        <v>354</v>
+        <v>477</v>
       </c>
       <c r="D97" t="s">
-        <v>404</v>
+        <v>427</v>
+      </c>
+      <c r="E97" t="s">
+        <v>230</v>
+      </c>
+      <c r="F97" t="s">
+        <v>268</v>
+      </c>
+      <c r="G97" t="s">
+        <v>226</v>
       </c>
       <c r="H97" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="I97" t="s">
-        <v>506</v>
+        <v>429</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L97" t="s">
+        <v>165</v>
+      </c>
+      <c r="M97" t="s">
+        <v>157</v>
+      </c>
+      <c r="N97" t="s">
+        <v>273</v>
+      </c>
+      <c r="O97" t="s">
+        <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>553</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B98" t="s">
         <v>66</v>
       </c>
       <c r="C98" t="s">
-        <v>355</v>
+        <v>478</v>
       </c>
       <c r="D98" t="s">
-        <v>405</v>
+        <v>430</v>
+      </c>
+      <c r="E98" t="s">
+        <v>234</v>
+      </c>
+      <c r="F98" t="s">
+        <v>268</v>
+      </c>
+      <c r="G98" t="s">
+        <v>226</v>
       </c>
       <c r="H98" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="I98" t="s">
-        <v>507</v>
+        <v>432</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L98" t="s">
+        <v>265</v>
+      </c>
+      <c r="M98" t="s">
+        <v>157</v>
+      </c>
+      <c r="N98" t="s">
+        <v>273</v>
+      </c>
+      <c r="O98" t="s">
+        <v>148</v>
       </c>
       <c r="P98" t="s">
-        <v>554</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B99" t="s">
         <v>66</v>
       </c>
       <c r="C99" t="s">
-        <v>356</v>
+        <v>479</v>
       </c>
       <c r="D99" t="s">
-        <v>406</v>
+        <v>433</v>
+      </c>
+      <c r="E99" t="s">
+        <v>234</v>
+      </c>
+      <c r="F99" t="s">
+        <v>268</v>
+      </c>
+      <c r="G99" t="s">
+        <v>226</v>
       </c>
       <c r="H99" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="I99" t="s">
-        <v>508</v>
+        <v>435</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L99" t="s">
+        <v>165</v>
+      </c>
+      <c r="M99" t="s">
+        <v>157</v>
+      </c>
+      <c r="N99" t="s">
+        <v>273</v>
+      </c>
+      <c r="O99" t="s">
+        <v>148</v>
       </c>
       <c r="P99" t="s">
-        <v>555</v>
+        <v>266</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B100" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C100" t="s">
-        <v>357</v>
+        <v>486</v>
       </c>
       <c r="D100" t="s">
-        <v>407</v>
+        <v>436</v>
+      </c>
+      <c r="E100" t="s">
+        <v>230</v>
+      </c>
+      <c r="F100" t="s">
+        <v>225</v>
+      </c>
+      <c r="G100" t="s">
+        <v>226</v>
       </c>
       <c r="H100" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="I100" t="s">
-        <v>509</v>
+        <v>438</v>
+      </c>
+      <c r="J100" t="s">
+        <v>152</v>
+      </c>
+      <c r="K100" t="s">
+        <v>227</v>
+      </c>
+      <c r="L100" t="s">
+        <v>165</v>
+      </c>
+      <c r="M100" t="s">
+        <v>163</v>
+      </c>
+      <c r="N100" t="s">
+        <v>162</v>
+      </c>
+      <c r="O100" t="s">
+        <v>148</v>
       </c>
       <c r="P100" t="s">
-        <v>556</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B101" t="s">
         <v>86</v>
       </c>
       <c r="C101" t="s">
-        <v>358</v>
+        <v>487</v>
       </c>
       <c r="D101" t="s">
-        <v>408</v>
+        <v>439</v>
+      </c>
+      <c r="E101" t="s">
+        <v>230</v>
+      </c>
+      <c r="F101" t="s">
+        <v>225</v>
+      </c>
+      <c r="G101" t="s">
+        <v>226</v>
       </c>
       <c r="H101" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="I101" t="s">
-        <v>510</v>
+        <v>441</v>
+      </c>
+      <c r="J101" t="s">
+        <v>152</v>
+      </c>
+      <c r="K101" t="s">
+        <v>227</v>
+      </c>
+      <c r="L101" t="s">
+        <v>265</v>
+      </c>
+      <c r="M101" t="s">
+        <v>163</v>
+      </c>
+      <c r="N101" t="s">
+        <v>162</v>
+      </c>
+      <c r="O101" t="s">
+        <v>148</v>
       </c>
       <c r="P101" t="s">
-        <v>557</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B102" t="s">
         <v>86</v>
       </c>
       <c r="C102" t="s">
-        <v>359</v>
+        <v>488</v>
       </c>
       <c r="D102" t="s">
-        <v>409</v>
+        <v>442</v>
+      </c>
+      <c r="E102" t="s">
+        <v>230</v>
+      </c>
+      <c r="F102" t="s">
+        <v>225</v>
+      </c>
+      <c r="G102" t="s">
+        <v>226</v>
       </c>
       <c r="H102" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="I102" t="s">
-        <v>511</v>
+        <v>444</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L102" t="s">
+        <v>145</v>
+      </c>
+      <c r="M102" t="s">
+        <v>163</v>
+      </c>
+      <c r="N102" t="s">
+        <v>273</v>
+      </c>
+      <c r="O102" t="s">
+        <v>148</v>
       </c>
       <c r="P102" t="s">
-        <v>558</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B103" t="s">
         <v>86</v>
       </c>
       <c r="C103" t="s">
-        <v>360</v>
+        <v>489</v>
       </c>
       <c r="D103" t="s">
-        <v>410</v>
+        <v>445</v>
+      </c>
+      <c r="E103" t="s">
+        <v>230</v>
+      </c>
+      <c r="F103" t="s">
+        <v>225</v>
+      </c>
+      <c r="G103" t="s">
+        <v>226</v>
       </c>
       <c r="H103" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="I103" t="s">
-        <v>512</v>
+        <v>447</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L103" t="s">
+        <v>145</v>
+      </c>
+      <c r="M103" t="s">
+        <v>163</v>
+      </c>
+      <c r="N103" t="s">
+        <v>273</v>
+      </c>
+      <c r="O103" t="s">
+        <v>148</v>
       </c>
       <c r="P103" t="s">
-        <v>559</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B104" t="s">
         <v>86</v>
       </c>
       <c r="C104" t="s">
-        <v>361</v>
+        <v>490</v>
       </c>
       <c r="D104" t="s">
-        <v>411</v>
+        <v>448</v>
+      </c>
+      <c r="E104" t="s">
+        <v>230</v>
+      </c>
+      <c r="F104" t="s">
+        <v>225</v>
+      </c>
+      <c r="G104" t="s">
+        <v>226</v>
       </c>
       <c r="H104" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="I104" t="s">
-        <v>513</v>
+        <v>450</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L104" t="s">
+        <v>165</v>
+      </c>
+      <c r="M104" t="s">
+        <v>163</v>
+      </c>
+      <c r="N104" t="s">
+        <v>273</v>
+      </c>
+      <c r="O104" t="s">
+        <v>148</v>
       </c>
       <c r="P104" t="s">
-        <v>560</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B105" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C105" t="s">
-        <v>362</v>
+        <v>480</v>
       </c>
       <c r="D105" t="s">
-        <v>412</v>
+        <v>451</v>
+      </c>
+      <c r="E105" t="s">
+        <v>230</v>
+      </c>
+      <c r="F105" t="s">
+        <v>225</v>
+      </c>
+      <c r="G105" t="s">
+        <v>226</v>
       </c>
       <c r="H105" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="I105" t="s">
-        <v>514</v>
+        <v>453</v>
+      </c>
+      <c r="J105" t="s">
+        <v>152</v>
+      </c>
+      <c r="K105" t="s">
+        <v>284</v>
+      </c>
+      <c r="L105" t="s">
+        <v>145</v>
+      </c>
+      <c r="M105" t="s">
+        <v>163</v>
+      </c>
+      <c r="N105" t="s">
+        <v>162</v>
+      </c>
+      <c r="O105" t="s">
+        <v>148</v>
       </c>
       <c r="P105" t="s">
-        <v>561</v>
+        <v>91</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B106" t="s">
         <v>85</v>
       </c>
       <c r="C106" t="s">
-        <v>363</v>
+        <v>481</v>
       </c>
       <c r="D106" t="s">
-        <v>413</v>
+        <v>454</v>
+      </c>
+      <c r="E106" t="s">
+        <v>230</v>
+      </c>
+      <c r="F106" t="s">
+        <v>225</v>
+      </c>
+      <c r="G106" t="s">
+        <v>226</v>
       </c>
       <c r="H106" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="I106" t="s">
-        <v>515</v>
+        <v>456</v>
+      </c>
+      <c r="J106" t="s">
+        <v>152</v>
+      </c>
+      <c r="K106" t="s">
+        <v>227</v>
+      </c>
+      <c r="L106" t="s">
+        <v>165</v>
+      </c>
+      <c r="M106" t="s">
+        <v>163</v>
+      </c>
+      <c r="N106" t="s">
+        <v>162</v>
+      </c>
+      <c r="O106" t="s">
+        <v>148</v>
       </c>
       <c r="P106" t="s">
-        <v>562</v>
+        <v>91</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B107" t="s">
         <v>85</v>
       </c>
       <c r="C107" t="s">
-        <v>364</v>
+        <v>482</v>
       </c>
       <c r="D107" t="s">
-        <v>414</v>
+        <v>457</v>
+      </c>
+      <c r="E107" t="s">
+        <v>230</v>
+      </c>
+      <c r="F107" t="s">
+        <v>225</v>
+      </c>
+      <c r="G107" t="s">
+        <v>226</v>
       </c>
       <c r="H107" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="I107" t="s">
-        <v>516</v>
+        <v>459</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L107" t="s">
+        <v>485</v>
+      </c>
+      <c r="M107" t="s">
+        <v>163</v>
+      </c>
+      <c r="N107" t="s">
+        <v>273</v>
+      </c>
+      <c r="O107" t="s">
+        <v>148</v>
       </c>
       <c r="P107" t="s">
-        <v>563</v>
+        <v>91</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B108" t="s">
         <v>85</v>
       </c>
       <c r="C108" t="s">
-        <v>365</v>
+        <v>483</v>
       </c>
       <c r="D108" t="s">
-        <v>415</v>
+        <v>460</v>
+      </c>
+      <c r="E108" t="s">
+        <v>230</v>
+      </c>
+      <c r="F108" t="s">
+        <v>225</v>
+      </c>
+      <c r="G108" t="s">
+        <v>226</v>
       </c>
       <c r="H108" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I108" t="s">
-        <v>517</v>
+        <v>462</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L108" t="s">
+        <v>485</v>
+      </c>
+      <c r="M108" t="s">
+        <v>163</v>
+      </c>
+      <c r="N108" t="s">
+        <v>273</v>
+      </c>
+      <c r="O108" t="s">
+        <v>148</v>
       </c>
       <c r="P108" t="s">
-        <v>564</v>
+        <v>91</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B109" t="s">
         <v>85</v>
       </c>
       <c r="C109" t="s">
-        <v>366</v>
+        <v>484</v>
       </c>
       <c r="D109" t="s">
-        <v>416</v>
+        <v>463</v>
+      </c>
+      <c r="E109" t="s">
+        <v>230</v>
+      </c>
+      <c r="F109" t="s">
+        <v>225</v>
+      </c>
+      <c r="G109" t="s">
+        <v>226</v>
       </c>
       <c r="H109" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I109" t="s">
-        <v>518</v>
+        <v>465</v>
+      </c>
+      <c r="J109" t="s">
+        <v>152</v>
+      </c>
+      <c r="K109" t="s">
+        <v>227</v>
+      </c>
+      <c r="L109" t="s">
+        <v>269</v>
+      </c>
+      <c r="M109" t="s">
+        <v>163</v>
+      </c>
+      <c r="N109" t="s">
+        <v>162</v>
+      </c>
+      <c r="O109" t="s">
+        <v>148</v>
       </c>
       <c r="P109" t="s">
-        <v>565</v>
+        <v>91</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B110" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C110" t="s">
-        <v>367</v>
+        <v>139</v>
       </c>
       <c r="D110" t="s">
-        <v>417</v>
+        <v>466</v>
+      </c>
+      <c r="E110" t="s">
+        <v>230</v>
+      </c>
+      <c r="F110" t="s">
+        <v>225</v>
+      </c>
+      <c r="G110" t="s">
+        <v>226</v>
       </c>
       <c r="H110" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I110" t="s">
-        <v>519</v>
+        <v>141</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K110" t="s">
+        <v>227</v>
+      </c>
+      <c r="L110" t="s">
+        <v>156</v>
+      </c>
+      <c r="M110" t="s">
+        <v>157</v>
+      </c>
+      <c r="N110" t="s">
+        <v>159</v>
+      </c>
+      <c r="O110" t="s">
+        <v>148</v>
       </c>
       <c r="P110" t="s">
-        <v>566</v>
+        <v>84</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B111" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="D111" t="s">
-        <v>418</v>
+        <v>323</v>
+      </c>
+      <c r="E111" t="s">
+        <v>230</v>
+      </c>
+      <c r="F111" t="s">
+        <v>261</v>
+      </c>
+      <c r="G111" t="s">
+        <v>226</v>
       </c>
       <c r="H111" t="s">
-        <v>469</v>
+        <v>13</v>
       </c>
       <c r="I111" t="s">
-        <v>142</v>
+        <v>301</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L111" t="s">
+        <v>269</v>
+      </c>
+      <c r="M111" t="s">
+        <v>157</v>
+      </c>
+      <c r="N111" t="s">
+        <v>162</v>
+      </c>
+      <c r="O111" t="s">
+        <v>148</v>
       </c>
       <c r="P111" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
